--- a/total_res/ST3a_output.xlsx
+++ b/total_res/ST3a_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M602"/>
+  <dimension ref="A1:N602"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,6 +492,11 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>real_quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>percent</t>
         </is>
       </c>
@@ -538,10 +543,19 @@
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -595,6 +609,9 @@
         <v>0.5</v>
       </c>
       <c r="M3" t="n">
+        <v>0.4246936</v>
+      </c>
+      <c r="N3" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -650,6 +667,9 @@
         <v>0.7899999999999636</v>
       </c>
       <c r="M4" t="n">
+        <v>0.7147312999999635</v>
+      </c>
+      <c r="N4" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -705,6 +725,9 @@
         <v>0.3100000000000023</v>
       </c>
       <c r="M5" t="n">
+        <v>0.2346871000000023</v>
+      </c>
+      <c r="N5" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -760,6 +783,9 @@
         <v>0.2299999999999898</v>
       </c>
       <c r="M6" t="n">
+        <v>0.1952860999999898</v>
+      </c>
+      <c r="N6" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -815,6 +841,9 @@
         <v>0.25</v>
       </c>
       <c r="M7" t="n">
+        <v>0.2153485</v>
+      </c>
+      <c r="N7" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -870,6 +899,9 @@
         <v>2.850000000000023</v>
       </c>
       <c r="M8" t="n">
+        <v>2.716041500000023</v>
+      </c>
+      <c r="N8" t="n">
         <v>0.5499999999999999</v>
       </c>
     </row>
@@ -917,6 +949,9 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>-0.133939</v>
+      </c>
+      <c r="N9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -972,6 +1007,9 @@
         <v>0.789999999999992</v>
       </c>
       <c r="M10" t="n">
+        <v>0.729488899999992</v>
+      </c>
+      <c r="N10" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -1027,6 +1065,9 @@
         <v>0.7299999999999898</v>
       </c>
       <c r="M11" t="n">
+        <v>0.6694966999999897</v>
+      </c>
+      <c r="N11" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -1082,6 +1123,9 @@
         <v>7.599999999999909</v>
       </c>
       <c r="M12" t="n">
+        <v>7.328247999999909</v>
+      </c>
+      <c r="N12" t="n">
         <v>0.73</v>
       </c>
     </row>
@@ -1137,6 +1181,9 @@
         <v>7.200000000000045</v>
       </c>
       <c r="M13" t="n">
+        <v>6.931264000000045</v>
+      </c>
+      <c r="N13" t="n">
         <v>0.6899999999999999</v>
       </c>
     </row>
@@ -1184,6 +1231,9 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
+        <v>-0.00308464</v>
+      </c>
+      <c r="N14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1239,6 +1289,9 @@
         <v>0.5200000000000102</v>
       </c>
       <c r="M15" t="n">
+        <v>0.4768036000000103</v>
+      </c>
+      <c r="N15" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -1286,6 +1339,9 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
+        <v>-0.043238</v>
+      </c>
+      <c r="N16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1341,6 +1397,9 @@
         <v>0.1099999999999994</v>
       </c>
       <c r="M17" t="n">
+        <v>0.09677509999999941</v>
+      </c>
+      <c r="N17" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -1396,6 +1455,9 @@
         <v>0.105000000000004</v>
       </c>
       <c r="M18" t="n">
+        <v>0.091774450000004</v>
+      </c>
+      <c r="N18" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -1443,6 +1505,9 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
+        <v>-0.0132119</v>
+      </c>
+      <c r="N19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1498,6 +1563,9 @@
         <v>5</v>
       </c>
       <c r="M20" t="n">
+        <v>4.632126</v>
+      </c>
+      <c r="N20" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -1553,6 +1621,9 @@
         <v>0.7999999999999545</v>
       </c>
       <c r="M21" t="n">
+        <v>0.4311639999999545</v>
+      </c>
+      <c r="N21" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -1600,6 +1671,9 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
+        <v>-0.368732</v>
+      </c>
+      <c r="N22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1655,6 +1729,9 @@
         <v>0.3900000000000006</v>
       </c>
       <c r="M23" t="n">
+        <v>0.3741023000000007</v>
+      </c>
+      <c r="N23" t="n">
         <v>0.64</v>
       </c>
     </row>
@@ -1710,6 +1787,9 @@
         <v>-0.3200000000000003</v>
       </c>
       <c r="M24" t="n">
+        <v>-0.3352308000000003</v>
+      </c>
+      <c r="N24" t="n">
         <v>-0.54</v>
       </c>
     </row>
@@ -1765,6 +1845,9 @@
         <v>0.07999999999999829</v>
       </c>
       <c r="M25" t="n">
+        <v>0.06482119999999829</v>
+      </c>
+      <c r="N25" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -1812,6 +1895,9 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
+        <v>-0.177684</v>
+      </c>
+      <c r="N26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1859,6 +1945,9 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
+        <v>-2.61404e-05</v>
+      </c>
+      <c r="N27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1914,6 +2003,9 @@
         <v>0.001000000000000001</v>
       </c>
       <c r="M28" t="n">
+        <v>0.0008427520000000011</v>
+      </c>
+      <c r="N28" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -1969,6 +2061,9 @@
         <v>7.899999999999636</v>
       </c>
       <c r="M29" t="n">
+        <v>7.111809999999636</v>
+      </c>
+      <c r="N29" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -2024,6 +2119,9 @@
         <v>9.599999999999909</v>
       </c>
       <c r="M30" t="n">
+        <v>8.81403299999991</v>
+      </c>
+      <c r="N30" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -2079,6 +2177,9 @@
         <v>14.09999999999991</v>
       </c>
       <c r="M31" t="n">
+        <v>13.31495599999991</v>
+      </c>
+      <c r="N31" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -2134,6 +2235,9 @@
         <v>0.06000000000000227</v>
       </c>
       <c r="M32" t="n">
+        <v>0.05094810000000227</v>
+      </c>
+      <c r="N32" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -2189,6 +2293,9 @@
         <v>0.1200000000000045</v>
       </c>
       <c r="M33" t="n">
+        <v>0.1109546000000045</v>
+      </c>
+      <c r="N33" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -2244,6 +2351,9 @@
         <v>0.5250000000000057</v>
       </c>
       <c r="M34" t="n">
+        <v>0.5159851500000057</v>
+      </c>
+      <c r="N34" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -2289,10 +2399,19 @@
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2346,6 +2465,9 @@
         <v>1.060000000000002</v>
       </c>
       <c r="M36" t="n">
+        <v>0.985887000000002</v>
+      </c>
+      <c r="N36" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -2401,6 +2523,9 @@
         <v>-1.03000000000003</v>
       </c>
       <c r="M37" t="n">
+        <v>-1.10422350000003</v>
+      </c>
+      <c r="N37" t="n">
         <v>-0.36</v>
       </c>
     </row>
@@ -2456,6 +2581,9 @@
         <v>1.110000000000014</v>
       </c>
       <c r="M38" t="n">
+        <v>1.035716700000014</v>
+      </c>
+      <c r="N38" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -2511,6 +2639,9 @@
         <v>-0.8999999999999773</v>
       </c>
       <c r="M39" t="n">
+        <v>-0.9339871999999773</v>
+      </c>
+      <c r="N39" t="n">
         <v>-0.6899999999999999</v>
       </c>
     </row>
@@ -2558,6 +2689,9 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
+        <v>-0.03410419999999999</v>
+      </c>
+      <c r="N40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2613,6 +2747,9 @@
         <v>74</v>
       </c>
       <c r="M41" t="n">
+        <v>72.27177999999999</v>
+      </c>
+      <c r="N41" t="n">
         <v>1.11</v>
       </c>
     </row>
@@ -2668,6 +2805,9 @@
         <v>8.5</v>
       </c>
       <c r="M42" t="n">
+        <v>6.779255</v>
+      </c>
+      <c r="N42" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -2723,6 +2863,9 @@
         <v>-10</v>
       </c>
       <c r="M43" t="n">
+        <v>-11.71834</v>
+      </c>
+      <c r="N43" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -2778,6 +2921,9 @@
         <v>0.9499999999999886</v>
       </c>
       <c r="M44" t="n">
+        <v>0.8179004999999887</v>
+      </c>
+      <c r="N44" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -2833,6 +2979,9 @@
         <v>4.550000000000011</v>
       </c>
       <c r="M45" t="n">
+        <v>4.418368500000011</v>
+      </c>
+      <c r="N45" t="n">
         <v>0.89</v>
       </c>
     </row>
@@ -2880,6 +3029,9 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
+        <v>-0.131534</v>
+      </c>
+      <c r="N46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2935,6 +3087,9 @@
         <v>0.09999999999999432</v>
       </c>
       <c r="M47" t="n">
+        <v>0.04031699999999432</v>
+      </c>
+      <c r="N47" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -2990,6 +3145,9 @@
         <v>1.02000000000001</v>
       </c>
       <c r="M48" t="n">
+        <v>0.9601974000000101</v>
+      </c>
+      <c r="N48" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -3037,6 +3195,9 @@
         <v>0</v>
       </c>
       <c r="M49" t="n">
+        <v>-0.05984159999999999</v>
+      </c>
+      <c r="N49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3092,6 +3253,9 @@
         <v>-8.400000000000091</v>
       </c>
       <c r="M50" t="n">
+        <v>-8.666812000000093</v>
+      </c>
+      <c r="N50" t="n">
         <v>-0.8200000000000001</v>
       </c>
     </row>
@@ -3147,6 +3311,9 @@
         <v>2.600000000000023</v>
       </c>
       <c r="M51" t="n">
+        <v>2.334202000000023</v>
+      </c>
+      <c r="N51" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -3194,6 +3361,9 @@
         <v>0</v>
       </c>
       <c r="M52" t="n">
+        <v>-0.265304</v>
+      </c>
+      <c r="N52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3249,6 +3419,9 @@
         <v>-0.3799999999999955</v>
       </c>
       <c r="M53" t="n">
+        <v>-0.4132721999999955</v>
+      </c>
+      <c r="N53" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -3304,6 +3477,9 @@
         <v>0</v>
       </c>
       <c r="M54" t="n">
+        <v>-0.0428168</v>
+      </c>
+      <c r="N54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3359,6 +3535,9 @@
         <v>0.08000000000001251</v>
       </c>
       <c r="M55" t="n">
+        <v>0.03706360000001251</v>
+      </c>
+      <c r="N55" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -3406,6 +3585,9 @@
         <v>0</v>
       </c>
       <c r="M56" t="n">
+        <v>-0.04296759999999999</v>
+      </c>
+      <c r="N56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3461,6 +3643,9 @@
         <v>0.2999999999999972</v>
       </c>
       <c r="M57" t="n">
+        <v>0.2868816999999972</v>
+      </c>
+      <c r="N57" t="n">
         <v>0.59</v>
       </c>
     </row>
@@ -3516,6 +3701,9 @@
         <v>-0.1199999999999974</v>
       </c>
       <c r="M58" t="n">
+        <v>-0.1330883999999974</v>
+      </c>
+      <c r="N58" t="n">
         <v>-0.24</v>
       </c>
     </row>
@@ -3571,6 +3759,9 @@
         <v>-0.01999999999999602</v>
       </c>
       <c r="M59" t="n">
+        <v>-0.03307929999999602</v>
+      </c>
+      <c r="N59" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -3618,6 +3809,9 @@
         <v>0</v>
       </c>
       <c r="M60" t="n">
+        <v>-0.0131014</v>
+      </c>
+      <c r="N60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3673,6 +3867,9 @@
         <v>1</v>
       </c>
       <c r="M61" t="n">
+        <v>0.635402</v>
+      </c>
+      <c r="N61" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -3720,6 +3917,9 @@
         <v>0</v>
       </c>
       <c r="M62" t="n">
+        <v>-0.363428</v>
+      </c>
+      <c r="N62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3775,6 +3975,9 @@
         <v>0.03999999999999915</v>
       </c>
       <c r="M63" t="n">
+        <v>0.02421279999999915</v>
+      </c>
+      <c r="N63" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -3830,6 +4033,9 @@
         <v>0.1499999999999986</v>
       </c>
       <c r="M64" t="n">
+        <v>0.1343050999999986</v>
+      </c>
+      <c r="N64" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -3885,6 +4091,9 @@
         <v>0.259999999999998</v>
       </c>
       <c r="M65" t="n">
+        <v>0.245195599999998</v>
+      </c>
+      <c r="N65" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -3940,6 +4149,9 @@
         <v>0.1200000000000045</v>
       </c>
       <c r="M66" t="n">
+        <v>0.08278880000000451</v>
+      </c>
+      <c r="N66" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -3995,6 +4207,9 @@
         <v>0.2199999999999989</v>
       </c>
       <c r="M67" t="n">
+        <v>0.1828225999999989</v>
+      </c>
+      <c r="N67" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -4050,6 +4265,9 @@
         <v>-1.200000000000017</v>
       </c>
       <c r="M68" t="n">
+        <v>-1.237362000000017</v>
+      </c>
+      <c r="N68" t="n">
         <v>-0.84</v>
       </c>
     </row>
@@ -4105,6 +4323,9 @@
         <v>1.139999999999986</v>
       </c>
       <c r="M69" t="n">
+        <v>1.102333799999986</v>
+      </c>
+      <c r="N69" t="n">
         <v>0.79</v>
       </c>
     </row>
@@ -4160,6 +4381,9 @@
         <v>-0.03800000000000026</v>
       </c>
       <c r="M70" t="n">
+        <v>-0.04342516000000027</v>
+      </c>
+      <c r="N70" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -4215,6 +4439,9 @@
         <v>0.09199999999999875</v>
       </c>
       <c r="M71" t="n">
+        <v>0.08658523999999874</v>
+      </c>
+      <c r="N71" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -4270,6 +4497,9 @@
         <v>-7.350000000000023</v>
       </c>
       <c r="M72" t="n">
+        <v>-7.524180500000023</v>
+      </c>
+      <c r="N72" t="n">
         <v>-1.1</v>
       </c>
     </row>
@@ -4317,6 +4547,9 @@
         <v>0</v>
       </c>
       <c r="M73" t="n">
+        <v>-0.175877</v>
+      </c>
+      <c r="N73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4372,6 +4605,9 @@
         <v>-0.0003800000000000053</v>
       </c>
       <c r="M74" t="n">
+        <v>-0.0004058726000000052</v>
+      </c>
+      <c r="N74" t="n">
         <v>-0.38</v>
       </c>
     </row>
@@ -4427,6 +4663,9 @@
         <v>0.003399999999999959</v>
       </c>
       <c r="M75" t="n">
+        <v>0.003244025999999959</v>
+      </c>
+      <c r="N75" t="n">
         <v>0.5700000000000001</v>
       </c>
     </row>
@@ -4482,6 +4721,9 @@
         <v>0.000400000000000067</v>
       </c>
       <c r="M76" t="n">
+        <v>0.000243428000000067</v>
+      </c>
+      <c r="N76" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -4529,6 +4771,9 @@
         <v>0</v>
       </c>
       <c r="M77" t="n">
+        <v>-0.000156546</v>
+      </c>
+      <c r="N77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4584,6 +4829,9 @@
         <v>8.650000000000091</v>
       </c>
       <c r="M78" t="n">
+        <v>7.872411500000091</v>
+      </c>
+      <c r="N78" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -4639,6 +4887,9 @@
         <v>8.049999999999727</v>
       </c>
       <c r="M79" t="n">
+        <v>7.277585499999727</v>
+      </c>
+      <c r="N79" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -4694,6 +4945,9 @@
         <v>2</v>
       </c>
       <c r="M80" t="n">
+        <v>1.229828</v>
+      </c>
+      <c r="N80" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -4749,6 +5003,9 @@
         <v>-12.39999999999964</v>
       </c>
       <c r="M81" t="n">
+        <v>-13.17310999999964</v>
+      </c>
+      <c r="N81" t="n">
         <v>-0.42</v>
       </c>
     </row>
@@ -4804,6 +5061,9 @@
         <v>-16.5</v>
       </c>
       <c r="M82" t="n">
+        <v>-17.272577</v>
+      </c>
+      <c r="N82" t="n">
         <v>-0.5499999999999999</v>
       </c>
     </row>
@@ -4859,6 +5119,9 @@
         <v>0.105000000000004</v>
       </c>
       <c r="M83" t="n">
+        <v>0.096031950000004</v>
+      </c>
+      <c r="N83" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -4906,6 +5169,9 @@
         <v>0</v>
       </c>
       <c r="M84" t="n">
+        <v>-0.008897199999999999</v>
+      </c>
+      <c r="N84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4951,10 +5217,19 @@
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -5000,6 +5275,9 @@
         <v>0</v>
       </c>
       <c r="M86" t="n">
+        <v>-1.66829</v>
+      </c>
+      <c r="N86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5055,6 +5333,9 @@
         <v>0.3000000000000114</v>
       </c>
       <c r="M87" t="n">
+        <v>0.1706760000000114</v>
+      </c>
+      <c r="N87" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -5110,6 +5391,9 @@
         <v>0.1200000000000045</v>
       </c>
       <c r="M88" t="n">
+        <v>0.06166900000000451</v>
+      </c>
+      <c r="N88" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -5165,6 +5449,9 @@
         <v>0.6099999999999852</v>
       </c>
       <c r="M89" t="n">
+        <v>0.5517326999999853</v>
+      </c>
+      <c r="N89" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -5220,6 +5507,9 @@
         <v>0.1299999999999955</v>
       </c>
       <c r="M90" t="n">
+        <v>0.07147789999999551</v>
+      </c>
+      <c r="N90" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -5275,6 +5565,9 @@
         <v>-0.07999999999998408</v>
       </c>
       <c r="M91" t="n">
+        <v>-0.1385493999999841</v>
+      </c>
+      <c r="N91" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -5322,6 +5615,9 @@
         <v>0</v>
       </c>
       <c r="M92" t="n">
+        <v>-0.0585598</v>
+      </c>
+      <c r="N92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5377,6 +5673,9 @@
         <v>-5</v>
       </c>
       <c r="M93" t="n">
+        <v>-5.261222</v>
+      </c>
+      <c r="N93" t="n">
         <v>-0.5</v>
       </c>
     </row>
@@ -5432,6 +5731,9 @@
         <v>1.399999999999977</v>
       </c>
       <c r="M94" t="n">
+        <v>1.137945999999977</v>
+      </c>
+      <c r="N94" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -5487,6 +5789,9 @@
         <v>3.399999999999977</v>
       </c>
       <c r="M95" t="n">
+        <v>3.138205999999977</v>
+      </c>
+      <c r="N95" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -5542,6 +5847,9 @@
         <v>0.2199999999999989</v>
       </c>
       <c r="M96" t="n">
+        <v>0.1877001999999989</v>
+      </c>
+      <c r="N96" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -5597,6 +5905,9 @@
         <v>0.460000000000008</v>
       </c>
       <c r="M97" t="n">
+        <v>0.427695000000008</v>
+      </c>
+      <c r="N97" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -5652,6 +5963,9 @@
         <v>-0.07999999999998408</v>
       </c>
       <c r="M98" t="n">
+        <v>-0.1218027999999841</v>
+      </c>
+      <c r="N98" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -5707,6 +6021,9 @@
         <v>0.4799999999999898</v>
       </c>
       <c r="M99" t="n">
+        <v>0.4381763999999898</v>
+      </c>
+      <c r="N99" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -5762,6 +6079,9 @@
         <v>0.2199999999999989</v>
       </c>
       <c r="M100" t="n">
+        <v>0.1782205999999989</v>
+      </c>
+      <c r="N100" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -5817,6 +6137,9 @@
         <v>-0.240000000000002</v>
       </c>
       <c r="M101" t="n">
+        <v>-0.252701000000002</v>
+      </c>
+      <c r="N101" t="n">
         <v>-0.49</v>
       </c>
     </row>
@@ -5872,6 +6195,9 @@
         <v>-1</v>
       </c>
       <c r="M102" t="n">
+        <v>-1.358618</v>
+      </c>
+      <c r="N102" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -5927,6 +6253,9 @@
         <v>-0.01000000000000512</v>
       </c>
       <c r="M103" t="n">
+        <v>-0.02550250000000512</v>
+      </c>
+      <c r="N103" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -5982,6 +6311,9 @@
         <v>0.3599999999999994</v>
       </c>
       <c r="M104" t="n">
+        <v>0.3454373999999994</v>
+      </c>
+      <c r="N104" t="n">
         <v>0.64</v>
       </c>
     </row>
@@ -6037,6 +6369,9 @@
         <v>0.02000000000000313</v>
       </c>
       <c r="M105" t="n">
+        <v>0.005388000000003132</v>
+      </c>
+      <c r="N105" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -6092,6 +6427,9 @@
         <v>0.00999999999999801</v>
       </c>
       <c r="M106" t="n">
+        <v>-0.004608100000001988</v>
+      </c>
+      <c r="N106" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -6147,6 +6485,9 @@
         <v>0.2100000000000009</v>
       </c>
       <c r="M107" t="n">
+        <v>0.1954179000000009</v>
+      </c>
+      <c r="N107" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -6194,6 +6535,9 @@
         <v>0</v>
       </c>
       <c r="M108" t="n">
+        <v>-0.03697199999999999</v>
+      </c>
+      <c r="N108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6241,6 +6585,9 @@
         <v>0</v>
       </c>
       <c r="M109" t="n">
+        <v>-0.00515996</v>
+      </c>
+      <c r="N109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6296,6 +6643,9 @@
         <v>-0.0005000000000000004</v>
       </c>
       <c r="M110" t="n">
+        <v>-0.0005247806000000005</v>
+      </c>
+      <c r="N110" t="n">
         <v>-0.53</v>
       </c>
     </row>
@@ -6341,10 +6691,19 @@
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -6398,6 +6757,9 @@
         <v>-0.8299999999999841</v>
       </c>
       <c r="M112" t="n">
+        <v>-0.9028194999999841</v>
+      </c>
+      <c r="N112" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -6453,6 +6815,9 @@
         <v>0.01999999999998181</v>
       </c>
       <c r="M113" t="n">
+        <v>-0.05223320000001818</v>
+      </c>
+      <c r="N113" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -6508,6 +6873,9 @@
         <v>-1.389999999999986</v>
       </c>
       <c r="M114" t="n">
+        <v>-1.462257899999986</v>
+      </c>
+      <c r="N114" t="n">
         <v>-0.5</v>
       </c>
     </row>
@@ -6563,6 +6931,9 @@
         <v>0.02000000000001023</v>
       </c>
       <c r="M115" t="n">
+        <v>-0.01361539999998977</v>
+      </c>
+      <c r="N115" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -6618,6 +6989,9 @@
         <v>-0.1300000000000239</v>
       </c>
       <c r="M116" t="n">
+        <v>-0.1635439000000239</v>
+      </c>
+      <c r="N116" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -6673,6 +7047,9 @@
         <v>0.7199999999999989</v>
       </c>
       <c r="M117" t="n">
+        <v>0.6865665999999988</v>
+      </c>
+      <c r="N117" t="n">
         <v>0.5599999999999999</v>
       </c>
     </row>
@@ -6728,6 +7105,9 @@
         <v>-0.5799999999999841</v>
       </c>
       <c r="M118" t="n">
+        <v>-0.6132565999999841</v>
+      </c>
+      <c r="N118" t="n">
         <v>-0.45</v>
       </c>
     </row>
@@ -6775,6 +7155,9 @@
         <v>0</v>
       </c>
       <c r="M119" t="n">
+        <v>-1.6575</v>
+      </c>
+      <c r="N119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6830,6 +7213,9 @@
         <v>3.300000000000011</v>
       </c>
       <c r="M120" t="n">
+        <v>3.170312000000011</v>
+      </c>
+      <c r="N120" t="n">
         <v>0.66</v>
       </c>
     </row>
@@ -6885,6 +7271,9 @@
         <v>1.699999999999989</v>
       </c>
       <c r="M121" t="n">
+        <v>1.571273999999989</v>
+      </c>
+      <c r="N121" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -6940,6 +7329,9 @@
         <v>0.2299999999999898</v>
       </c>
       <c r="M122" t="n">
+        <v>0.1712282999999898</v>
+      </c>
+      <c r="N122" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -6995,6 +7387,9 @@
         <v>0.01999999999998181</v>
       </c>
       <c r="M123" t="n">
+        <v>-0.03859620000001818</v>
+      </c>
+      <c r="N123" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -7042,6 +7437,9 @@
         <v>0</v>
       </c>
       <c r="M124" t="n">
+        <v>-0.05851819999999999</v>
+      </c>
+      <c r="N124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7097,6 +7495,9 @@
         <v>0.6000000000000227</v>
       </c>
       <c r="M125" t="n">
+        <v>0.3392460000000228</v>
+      </c>
+      <c r="N125" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -7152,6 +7553,9 @@
         <v>1.600000000000023</v>
       </c>
       <c r="M126" t="n">
+        <v>1.339116000000023</v>
+      </c>
+      <c r="N126" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -7207,6 +7611,9 @@
         <v>1.200000000000045</v>
       </c>
       <c r="M127" t="n">
+        <v>0.939064000000045</v>
+      </c>
+      <c r="N127" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -7262,6 +7669,9 @@
         <v>-0.3999999999999773</v>
       </c>
       <c r="M128" t="n">
+        <v>-0.6611439999999773</v>
+      </c>
+      <c r="N128" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -7317,6 +7727,9 @@
         <v>0.00700000000000145</v>
       </c>
       <c r="M129" t="n">
+        <v>0.003915490000001451</v>
+      </c>
+      <c r="N129" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -7372,6 +7785,9 @@
         <v>-0.0129999999999999</v>
       </c>
       <c r="M130" t="n">
+        <v>-0.0160806099999999</v>
+      </c>
+      <c r="N130" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -7427,6 +7843,9 @@
         <v>0.01600000000000001</v>
       </c>
       <c r="M131" t="n">
+        <v>0.01292316000000001</v>
+      </c>
+      <c r="N131" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -7482,6 +7901,9 @@
         <v>0.0009999999999994458</v>
       </c>
       <c r="M132" t="n">
+        <v>-0.002074110000000554</v>
+      </c>
+      <c r="N132" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -7537,6 +7959,9 @@
         <v>-0.1010000000000009</v>
       </c>
       <c r="M133" t="n">
+        <v>-0.1040858100000009</v>
+      </c>
+      <c r="N133" t="n">
         <v>-0.8500000000000001</v>
       </c>
     </row>
@@ -7592,6 +8017,9 @@
         <v>0.480000000000004</v>
       </c>
       <c r="M134" t="n">
+        <v>0.447359600000004</v>
+      </c>
+      <c r="N134" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -7647,6 +8075,9 @@
         <v>-0.8800000000000097</v>
       </c>
       <c r="M135" t="n">
+        <v>-0.9125104000000097</v>
+      </c>
+      <c r="N135" t="n">
         <v>-0.7000000000000001</v>
       </c>
     </row>
@@ -7702,6 +8133,9 @@
         <v>-0.02000000000001023</v>
       </c>
       <c r="M136" t="n">
+        <v>-0.06148820000001023</v>
+      </c>
+      <c r="N136" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -7757,6 +8191,9 @@
         <v>0.3000000000000114</v>
       </c>
       <c r="M137" t="n">
+        <v>0.2585534000000114</v>
+      </c>
+      <c r="N137" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -7812,6 +8249,9 @@
         <v>0.04000000000002046</v>
       </c>
       <c r="M138" t="n">
+        <v>-0.001381599999979541</v>
+      </c>
+      <c r="N138" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -7867,6 +8307,9 @@
         <v>0.1200000000000045</v>
       </c>
       <c r="M139" t="n">
+        <v>0.07862880000000451</v>
+      </c>
+      <c r="N139" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -7922,6 +8365,9 @@
         <v>0.4199999999999875</v>
       </c>
       <c r="M140" t="n">
+        <v>0.3785897999999875</v>
+      </c>
+      <c r="N140" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -7977,6 +8423,9 @@
         <v>0.07999999999998408</v>
       </c>
       <c r="M141" t="n">
+        <v>0.03850399999998409</v>
+      </c>
+      <c r="N141" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -8032,6 +8481,9 @@
         <v>0.6200000000000045</v>
       </c>
       <c r="M142" t="n">
+        <v>0.5784390000000046</v>
+      </c>
+      <c r="N142" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -8087,6 +8539,9 @@
         <v>0.125</v>
       </c>
       <c r="M143" t="n">
+        <v>0.11225285</v>
+      </c>
+      <c r="N143" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -8142,6 +8597,9 @@
         <v>0.125</v>
       </c>
       <c r="M144" t="n">
+        <v>0.11228535</v>
+      </c>
+      <c r="N144" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -8197,6 +8655,9 @@
         <v>1</v>
       </c>
       <c r="M145" t="n">
+        <v>0.639718</v>
+      </c>
+      <c r="N145" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -8252,6 +8713,9 @@
         <v>7.399999999999864</v>
       </c>
       <c r="M146" t="n">
+        <v>7.045125999999864</v>
+      </c>
+      <c r="N146" t="n">
         <v>0.54</v>
       </c>
     </row>
@@ -8307,6 +8771,9 @@
         <v>-0.4000000000000909</v>
       </c>
       <c r="M147" t="n">
+        <v>-0.7559400000000909</v>
+      </c>
+      <c r="N147" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -8362,6 +8829,9 @@
         <v>-0.3299999999999983</v>
       </c>
       <c r="M148" t="n">
+        <v>-0.3454634999999983</v>
+      </c>
+      <c r="N148" t="n">
         <v>-0.5599999999999999</v>
       </c>
     </row>
@@ -8417,6 +8887,9 @@
         <v>0.1300000000000026</v>
       </c>
       <c r="M149" t="n">
+        <v>0.1143727000000026</v>
+      </c>
+      <c r="N149" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -8472,6 +8945,9 @@
         <v>0.07000000000000739</v>
       </c>
       <c r="M150" t="n">
+        <v>0.04498930000000739</v>
+      </c>
+      <c r="N150" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -8527,6 +9003,9 @@
         <v>-0.04999999999999716</v>
       </c>
       <c r="M151" t="n">
+        <v>-0.06460289999999716</v>
+      </c>
+      <c r="N151" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -8582,6 +9061,9 @@
         <v>0.01999999999999602</v>
       </c>
       <c r="M152" t="n">
+        <v>0.005385399999996022</v>
+      </c>
+      <c r="N152" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -8637,6 +9119,9 @@
         <v>0.2100000000000009</v>
       </c>
       <c r="M153" t="n">
+        <v>0.1954101000000009</v>
+      </c>
+      <c r="N153" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -8692,6 +9177,9 @@
         <v>-0.3200000000000003</v>
       </c>
       <c r="M154" t="n">
+        <v>-0.3345366000000003</v>
+      </c>
+      <c r="N154" t="n">
         <v>-0.5700000000000001</v>
       </c>
     </row>
@@ -8747,6 +9235,9 @@
         <v>0.3200000000000003</v>
       </c>
       <c r="M155" t="n">
+        <v>0.3055648000000003</v>
+      </c>
+      <c r="N155" t="n">
         <v>0.5700000000000001</v>
       </c>
     </row>
@@ -8802,6 +9293,9 @@
         <v>-0.04999999999999716</v>
       </c>
       <c r="M156" t="n">
+        <v>-0.06437669999999715</v>
+      </c>
+      <c r="N156" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -8857,6 +9351,9 @@
         <v>0.1199999999999974</v>
       </c>
       <c r="M157" t="n">
+        <v>0.1056011999999974</v>
+      </c>
+      <c r="N157" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -8904,6 +9401,9 @@
         <v>0</v>
       </c>
       <c r="M158" t="n">
+        <v>-0.0144144</v>
+      </c>
+      <c r="N158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8959,6 +9459,9 @@
         <v>-1.439999999999998</v>
       </c>
       <c r="M159" t="n">
+        <v>-1.477330799999998</v>
+      </c>
+      <c r="N159" t="n">
         <v>-1.01</v>
       </c>
     </row>
@@ -9014,6 +9517,9 @@
         <v>0.1599999999999966</v>
       </c>
       <c r="M160" t="n">
+        <v>0.1224611999999966</v>
+      </c>
+      <c r="N160" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -9069,6 +9575,9 @@
         <v>-1.759999999999991</v>
       </c>
       <c r="M161" t="n">
+        <v>-1.797268399999991</v>
+      </c>
+      <c r="N161" t="n">
         <v>-1.22</v>
       </c>
     </row>
@@ -9124,6 +9633,9 @@
         <v>-1.239999999999981</v>
       </c>
       <c r="M162" t="n">
+        <v>-1.277200799999981</v>
+      </c>
+      <c r="N162" t="n">
         <v>-0.8699999999999999</v>
       </c>
     </row>
@@ -9179,6 +9691,9 @@
         <v>0.3400000000000034</v>
       </c>
       <c r="M163" t="n">
+        <v>0.3025938000000034</v>
+      </c>
+      <c r="N163" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -9234,6 +9749,9 @@
         <v>0.1359999999999992</v>
       </c>
       <c r="M164" t="n">
+        <v>0.1307966199999992</v>
+      </c>
+      <c r="N164" t="n">
         <v>0.6799999999999999</v>
       </c>
     </row>
@@ -9289,6 +9807,9 @@
         <v>-0.004000000000001336</v>
       </c>
       <c r="M165" t="n">
+        <v>-0.009124600000001336</v>
+      </c>
+      <c r="N165" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -9336,6 +9857,9 @@
         <v>0</v>
       </c>
       <c r="M166" t="n">
+        <v>-0.00516074</v>
+      </c>
+      <c r="N166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9391,6 +9915,9 @@
         <v>-2.5</v>
       </c>
       <c r="M167" t="n">
+        <v>-2.674135</v>
+      </c>
+      <c r="N167" t="n">
         <v>-0.37</v>
       </c>
     </row>
@@ -9446,6 +9973,9 @@
         <v>1.25</v>
       </c>
       <c r="M168" t="n">
+        <v>1.0762875</v>
+      </c>
+      <c r="N168" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -9501,6 +10031,9 @@
         <v>-0.75</v>
       </c>
       <c r="M169" t="n">
+        <v>-0.9241285</v>
+      </c>
+      <c r="N169" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -9548,6 +10081,9 @@
         <v>0</v>
       </c>
       <c r="M170" t="n">
+        <v>-0.174226</v>
+      </c>
+      <c r="N170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9603,6 +10139,9 @@
         <v>-7.47999999999999</v>
       </c>
       <c r="M171" t="n">
+        <v>-7.519223599999989</v>
+      </c>
+      <c r="N171" t="n">
         <v>-4.84</v>
       </c>
     </row>
@@ -9658,6 +10197,9 @@
         <v>0.4700000000000273</v>
       </c>
       <c r="M172" t="n">
+        <v>0.4316825000000273</v>
+      </c>
+      <c r="N172" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -9713,6 +10255,9 @@
         <v>-0.7700000000000102</v>
       </c>
       <c r="M173" t="n">
+        <v>-0.8084449000000102</v>
+      </c>
+      <c r="N173" t="n">
         <v>-0.52</v>
       </c>
     </row>
@@ -9760,6 +10305,9 @@
         <v>0</v>
       </c>
       <c r="M174" t="n">
+        <v>-0.0385788</v>
+      </c>
+      <c r="N174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9815,6 +10363,9 @@
         <v>-0.0007000000000000062</v>
       </c>
       <c r="M175" t="n">
+        <v>-0.0007249834000000062</v>
+      </c>
+      <c r="N175" t="n">
         <v>-0.73</v>
       </c>
     </row>
@@ -9870,6 +10421,9 @@
         <v>0.00068</v>
       </c>
       <c r="M176" t="n">
+        <v>0.0006553260000000001</v>
+      </c>
+      <c r="N176" t="n">
         <v>0.7100000000000001</v>
       </c>
     </row>
@@ -9925,6 +10479,9 @@
         <v>-0.0003599999999999992</v>
       </c>
       <c r="M177" t="n">
+        <v>-0.0003847311999999992</v>
+      </c>
+      <c r="N177" t="n">
         <v>-0.38</v>
       </c>
     </row>
@@ -9972,6 +10529,9 @@
         <v>0</v>
       </c>
       <c r="M178" t="n">
+        <v>-2.4778e-05</v>
+      </c>
+      <c r="N178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10019,6 +10579,9 @@
         <v>0</v>
       </c>
       <c r="M179" t="n">
+        <v>-0.750906</v>
+      </c>
+      <c r="N179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10064,10 +10627,19 @@
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -10121,6 +10693,9 @@
         <v>1.140000000000043</v>
       </c>
       <c r="M181" t="n">
+        <v>1.067353400000043</v>
+      </c>
+      <c r="N181" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -10176,6 +10751,9 @@
         <v>0.6799999999999926</v>
       </c>
       <c r="M182" t="n">
+        <v>0.6467563999999927</v>
+      </c>
+      <c r="N182" t="n">
         <v>0.53</v>
       </c>
     </row>
@@ -10231,6 +10809,9 @@
         <v>0.2099999999999795</v>
       </c>
       <c r="M183" t="n">
+        <v>0.1766640999999795</v>
+      </c>
+      <c r="N183" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -10286,6 +10867,9 @@
         <v>0.2200000000000131</v>
       </c>
       <c r="M184" t="n">
+        <v>0.1866940000000131</v>
+      </c>
+      <c r="N184" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -10341,6 +10925,9 @@
         <v>32</v>
       </c>
       <c r="M185" t="n">
+        <v>30.33119</v>
+      </c>
+      <c r="N185" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -10396,6 +10983,9 @@
         <v>3.199999999999989</v>
       </c>
       <c r="M186" t="n">
+        <v>3.070766999999989</v>
+      </c>
+      <c r="N186" t="n">
         <v>0.65</v>
       </c>
     </row>
@@ -10451,6 +11041,9 @@
         <v>0.6500000000000341</v>
       </c>
       <c r="M187" t="n">
+        <v>0.5203965000000341</v>
+      </c>
+      <c r="N187" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -10506,6 +11099,9 @@
         <v>-0.3000000000000114</v>
       </c>
       <c r="M188" t="n">
+        <v>-0.4297270000000114</v>
+      </c>
+      <c r="N188" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -10553,6 +11149,9 @@
         <v>0</v>
       </c>
       <c r="M189" t="n">
+        <v>-0.131274</v>
+      </c>
+      <c r="N189" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10608,6 +11207,9 @@
         <v>-0.3000000000000114</v>
       </c>
       <c r="M190" t="n">
+        <v>-0.3580190000000114</v>
+      </c>
+      <c r="N190" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -10663,6 +11265,9 @@
         <v>1.449999999999989</v>
       </c>
       <c r="M191" t="n">
+        <v>1.391727499999989</v>
+      </c>
+      <c r="N191" t="n">
         <v>0.65</v>
       </c>
     </row>
@@ -10718,6 +11323,9 @@
         <v>1.560000000000002</v>
       </c>
       <c r="M192" t="n">
+        <v>1.501653400000002</v>
+      </c>
+      <c r="N192" t="n">
         <v>0.7000000000000001</v>
       </c>
     </row>
@@ -10773,6 +11381,9 @@
         <v>-0.06000000000000227</v>
       </c>
       <c r="M193" t="n">
+        <v>-0.1186352000000023</v>
+      </c>
+      <c r="N193" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -10828,6 +11439,9 @@
         <v>1.100000000000023</v>
       </c>
       <c r="M194" t="n">
+        <v>1.041354400000023</v>
+      </c>
+      <c r="N194" t="n">
         <v>0.49</v>
       </c>
     </row>
@@ -10875,6 +11489,9 @@
         <v>0</v>
       </c>
       <c r="M195" t="n">
+        <v>-0.05884059999999999</v>
+      </c>
+      <c r="N195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10930,6 +11547,9 @@
         <v>1.200000000000045</v>
       </c>
       <c r="M196" t="n">
+        <v>0.9375560000000451</v>
+      </c>
+      <c r="N196" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -10985,6 +11605,9 @@
         <v>1</v>
       </c>
       <c r="M197" t="n">
+        <v>0.73753</v>
+      </c>
+      <c r="N197" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -11032,6 +11655,9 @@
         <v>0</v>
       </c>
       <c r="M198" t="n">
+        <v>-0.262496</v>
+      </c>
+      <c r="N198" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11087,6 +11713,9 @@
         <v>-0.05899999999999928</v>
       </c>
       <c r="M199" t="n">
+        <v>-0.06208996999999928</v>
+      </c>
+      <c r="N199" t="n">
         <v>-0.5</v>
       </c>
     </row>
@@ -11142,6 +11771,9 @@
         <v>0.01000000000000156</v>
       </c>
       <c r="M200" t="n">
+        <v>0.00690756000000156</v>
+      </c>
+      <c r="N200" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -11189,6 +11821,9 @@
         <v>0</v>
       </c>
       <c r="M201" t="n">
+        <v>-0.003093739999999999</v>
+      </c>
+      <c r="N201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11244,6 +11879,9 @@
         <v>0.2199999999999989</v>
       </c>
       <c r="M202" t="n">
+        <v>0.1880277999999989</v>
+      </c>
+      <c r="N202" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -11299,6 +11937,9 @@
         <v>0.2600000000000051</v>
       </c>
       <c r="M203" t="n">
+        <v>0.2280226000000051</v>
+      </c>
+      <c r="N203" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -11354,6 +11995,9 @@
         <v>-0.7199999999999989</v>
       </c>
       <c r="M204" t="n">
+        <v>-0.7611683999999989</v>
+      </c>
+      <c r="N204" t="n">
         <v>-0.46</v>
       </c>
     </row>
@@ -11409,6 +12053,9 @@
         <v>0.6599999999999966</v>
       </c>
       <c r="M205" t="n">
+        <v>0.6182881999999966</v>
+      </c>
+      <c r="N205" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -11464,6 +12111,9 @@
         <v>0.3900000000000006</v>
       </c>
       <c r="M206" t="n">
+        <v>0.3773107000000007</v>
+      </c>
+      <c r="N206" t="n">
         <v>0.8</v>
       </c>
     </row>
@@ -11519,6 +12169,9 @@
         <v>-20.19999999999982</v>
       </c>
       <c r="M207" t="n">
+        <v>-20.55580999999982</v>
+      </c>
+      <c r="N207" t="n">
         <v>-1.49</v>
       </c>
     </row>
@@ -11574,6 +12227,9 @@
         <v>0.07999999999999829</v>
       </c>
       <c r="M208" t="n">
+        <v>0.06442079999999829</v>
+      </c>
+      <c r="N208" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -11629,6 +12285,9 @@
         <v>-0.0800000000000054</v>
       </c>
       <c r="M209" t="n">
+        <v>-0.0955584000000054</v>
+      </c>
+      <c r="N209" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -11684,6 +12343,9 @@
         <v>0.2199999999999989</v>
       </c>
       <c r="M210" t="n">
+        <v>0.2044805999999989</v>
+      </c>
+      <c r="N210" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -11739,6 +12401,9 @@
         <v>0.04999999999999716</v>
       </c>
       <c r="M211" t="n">
+        <v>0.03437009999999716</v>
+      </c>
+      <c r="N211" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -11794,6 +12459,9 @@
         <v>-0.5600000000000023</v>
       </c>
       <c r="M212" t="n">
+        <v>-0.5757092000000023</v>
+      </c>
+      <c r="N212" t="n">
         <v>-0.9299999999999999</v>
       </c>
     </row>
@@ -11849,6 +12517,9 @@
         <v>-0.8200000000000074</v>
       </c>
       <c r="M213" t="n">
+        <v>-0.8449860000000075</v>
+      </c>
+      <c r="N213" t="n">
         <v>-0.86</v>
       </c>
     </row>
@@ -11904,6 +12575,9 @@
         <v>0.1400000000000006</v>
       </c>
       <c r="M214" t="n">
+        <v>0.1148892000000006</v>
+      </c>
+      <c r="N214" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -11959,6 +12633,9 @@
         <v>-1.530000000000001</v>
       </c>
       <c r="M215" t="n">
+        <v>-1.555327900000001</v>
+      </c>
+      <c r="N215" t="n">
         <v>-1.58</v>
       </c>
     </row>
@@ -12006,6 +12683,9 @@
         <v>0</v>
       </c>
       <c r="M216" t="n">
+        <v>-0.0255268</v>
+      </c>
+      <c r="N216" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12061,6 +12741,9 @@
         <v>-0.06000000000000227</v>
       </c>
       <c r="M217" t="n">
+        <v>-0.07433640000000227</v>
+      </c>
+      <c r="N217" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -12116,6 +12799,9 @@
         <v>0.6499999999999986</v>
       </c>
       <c r="M218" t="n">
+        <v>0.6355712999999986</v>
+      </c>
+      <c r="N218" t="n">
         <v>1.18</v>
       </c>
     </row>
@@ -12171,6 +12857,9 @@
         <v>0.09999999999999432</v>
       </c>
       <c r="M219" t="n">
+        <v>0.08545819999999431</v>
+      </c>
+      <c r="N219" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -12226,6 +12915,9 @@
         <v>0.3099999999999952</v>
       </c>
       <c r="M220" t="n">
+        <v>0.2953944999999952</v>
+      </c>
+      <c r="N220" t="n">
         <v>0.5499999999999999</v>
       </c>
     </row>
@@ -12281,6 +12973,9 @@
         <v>0.3799999999999955</v>
       </c>
       <c r="M221" t="n">
+        <v>0.3432125999999955</v>
+      </c>
+      <c r="N221" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -12336,6 +13031,9 @@
         <v>2.359999999999985</v>
       </c>
       <c r="M222" t="n">
+        <v>2.322955199999985</v>
+      </c>
+      <c r="N222" t="n">
         <v>1.67</v>
       </c>
     </row>
@@ -12391,6 +13089,9 @@
         <v>2.219999999999999</v>
       </c>
       <c r="M223" t="n">
+        <v>2.182442999999999</v>
+      </c>
+      <c r="N223" t="n">
         <v>1.55</v>
       </c>
     </row>
@@ -12446,6 +13147,9 @@
         <v>-0.4200000000000159</v>
       </c>
       <c r="M224" t="n">
+        <v>-0.4578066000000159</v>
+      </c>
+      <c r="N224" t="n">
         <v>-0.29</v>
       </c>
     </row>
@@ -12493,6 +13197,9 @@
         <v>0</v>
       </c>
       <c r="M225" t="n">
+        <v>-0.037804</v>
+      </c>
+      <c r="N225" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12548,6 +13255,9 @@
         <v>0.1700000000000017</v>
       </c>
       <c r="M226" t="n">
+        <v>0.1648923000000017</v>
+      </c>
+      <c r="N226" t="n">
         <v>0.86</v>
       </c>
     </row>
@@ -12603,6 +13313,9 @@
         <v>-0.1230000000000011</v>
       </c>
       <c r="M227" t="n">
+        <v>-0.1281223900000011</v>
+      </c>
+      <c r="N227" t="n">
         <v>-0.63</v>
       </c>
     </row>
@@ -12658,6 +13371,9 @@
         <v>-0.429000000000002</v>
       </c>
       <c r="M228" t="n">
+        <v>-0.434208710000002</v>
+      </c>
+      <c r="N228" t="n">
         <v>-2.16</v>
       </c>
     </row>
@@ -12705,6 +13421,9 @@
         <v>0</v>
       </c>
       <c r="M229" t="n">
+        <v>-0.00526474</v>
+      </c>
+      <c r="N229" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12760,6 +13479,9 @@
         <v>-4.100000000000023</v>
       </c>
       <c r="M230" t="n">
+        <v>-4.273381000000023</v>
+      </c>
+      <c r="N230" t="n">
         <v>-0.61</v>
       </c>
     </row>
@@ -12815,6 +13537,9 @@
         <v>0.4499999999999318</v>
       </c>
       <c r="M231" t="n">
+        <v>0.2772104999999318</v>
+      </c>
+      <c r="N231" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -12870,6 +13595,9 @@
         <v>-0.6499999999999773</v>
       </c>
       <c r="M232" t="n">
+        <v>-0.8226464999999772</v>
+      </c>
+      <c r="N232" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -12925,6 +13653,9 @@
         <v>-2.899999999999977</v>
       </c>
       <c r="M233" t="n">
+        <v>-3.072912999999977</v>
+      </c>
+      <c r="N233" t="n">
         <v>-0.44</v>
       </c>
     </row>
@@ -12980,6 +13711,9 @@
         <v>0.7000000000000455</v>
       </c>
       <c r="M234" t="n">
+        <v>0.5262290000000455</v>
+      </c>
+      <c r="N234" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -13027,6 +13761,9 @@
         <v>0</v>
       </c>
       <c r="M235" t="n">
+        <v>-0.0405028</v>
+      </c>
+      <c r="N235" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13082,6 +13819,9 @@
         <v>0.0002599999999999963</v>
       </c>
       <c r="M236" t="n">
+        <v>0.0002352037999999963</v>
+      </c>
+      <c r="N236" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -13137,6 +13877,9 @@
         <v>0.000120000000000009</v>
       </c>
       <c r="M237" t="n">
+        <v>9.5222000000009e-05</v>
+      </c>
+      <c r="N237" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -13192,6 +13935,9 @@
         <v>0.0001000000000000029</v>
       </c>
       <c r="M238" t="n">
+        <v>7.521940000000291e-05</v>
+      </c>
+      <c r="N238" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -13247,6 +13993,9 @@
         <v>0</v>
       </c>
       <c r="M239" t="n">
+        <v>-2.4752e-05</v>
+      </c>
+      <c r="N239" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13302,6 +14051,9 @@
         <v>-0.0005399999999999988</v>
       </c>
       <c r="M240" t="n">
+        <v>-0.0005648221999999989</v>
+      </c>
+      <c r="N240" t="n">
         <v>-0.5700000000000001</v>
       </c>
     </row>
@@ -13357,6 +14109,9 @@
         <v>-0.000219999999999998</v>
       </c>
       <c r="M241" t="n">
+        <v>-0.000245362999999998</v>
+      </c>
+      <c r="N241" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -13412,6 +14167,9 @@
         <v>8.000000000001062e-05</v>
       </c>
       <c r="M242" t="n">
+        <v>5.467600000001061e-05</v>
+      </c>
+      <c r="N242" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -13467,6 +14225,9 @@
         <v>0.0004200000000000037</v>
       </c>
       <c r="M243" t="n">
+        <v>0.0003946318000000037</v>
+      </c>
+      <c r="N243" t="n">
         <v>0.43</v>
       </c>
     </row>
@@ -13514,6 +14275,9 @@
         <v>0</v>
       </c>
       <c r="M244" t="n">
+        <v>-2.535e-05</v>
+      </c>
+      <c r="N244" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13569,6 +14333,9 @@
         <v>14.30000000000018</v>
       </c>
       <c r="M245" t="n">
+        <v>13.54688400000018</v>
+      </c>
+      <c r="N245" t="n">
         <v>0.49</v>
       </c>
     </row>
@@ -13614,10 +14381,19 @@
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" t="n">
+        <v>0</v>
+      </c>
+      <c r="L246" t="n">
+        <v>0</v>
+      </c>
+      <c r="M246" t="n">
+        <v>0</v>
+      </c>
+      <c r="N246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -13671,6 +14447,9 @@
         <v>0.4700000000000273</v>
       </c>
       <c r="M247" t="n">
+        <v>0.3963225000000273</v>
+      </c>
+      <c r="N247" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -13726,6 +14505,9 @@
         <v>-0.7400000000000091</v>
       </c>
       <c r="M248" t="n">
+        <v>-0.8138348000000091</v>
+      </c>
+      <c r="N248" t="n">
         <v>-0.26</v>
       </c>
     </row>
@@ -13781,6 +14563,9 @@
         <v>-1.340000000000032</v>
       </c>
       <c r="M249" t="n">
+        <v>-1.413793200000032</v>
+      </c>
+      <c r="N249" t="n">
         <v>-0.47</v>
       </c>
     </row>
@@ -13836,6 +14621,9 @@
         <v>-0.4600000000000364</v>
       </c>
       <c r="M250" t="n">
+        <v>-0.5336788000000364</v>
+      </c>
+      <c r="N250" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -13883,6 +14671,9 @@
         <v>0</v>
       </c>
       <c r="M251" t="n">
+        <v>-0.0737386</v>
+      </c>
+      <c r="N251" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13938,6 +14729,9 @@
         <v>0.01999999999998181</v>
       </c>
       <c r="M252" t="n">
+        <v>-0.01387280000001819</v>
+      </c>
+      <c r="N252" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -13993,6 +14787,9 @@
         <v>0.2599999999999909</v>
       </c>
       <c r="M253" t="n">
+        <v>0.2261453999999909</v>
+      </c>
+      <c r="N253" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -14040,6 +14837,9 @@
         <v>0</v>
       </c>
       <c r="M254" t="n">
+        <v>-0.0336908</v>
+      </c>
+      <c r="N254" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14095,6 +14895,9 @@
         <v>7</v>
       </c>
       <c r="M255" t="n">
+        <v>5.30545</v>
+      </c>
+      <c r="N255" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -14150,6 +14953,9 @@
         <v>22</v>
       </c>
       <c r="M256" t="n">
+        <v>20.3035</v>
+      </c>
+      <c r="N256" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -14205,6 +15011,9 @@
         <v>10</v>
       </c>
       <c r="M257" t="n">
+        <v>8.316369999999999</v>
+      </c>
+      <c r="N257" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -14252,6 +15061,9 @@
         <v>0</v>
       </c>
       <c r="M258" t="n">
+        <v>-1.68233</v>
+      </c>
+      <c r="N258" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14307,6 +15119,9 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="M259" t="n">
+        <v>-0.1822685000000114</v>
+      </c>
+      <c r="N259" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -14362,6 +15177,9 @@
         <v>-2.699999999999989</v>
       </c>
       <c r="M260" t="n">
+        <v>-2.832612999999989</v>
+      </c>
+      <c r="N260" t="n">
         <v>-0.53</v>
       </c>
     </row>
@@ -14417,6 +15235,9 @@
         <v>0</v>
       </c>
       <c r="M261" t="n">
+        <v>-0.132873</v>
+      </c>
+      <c r="N261" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14464,6 +15285,9 @@
         <v>0</v>
       </c>
       <c r="M262" t="n">
+        <v>-0.13286</v>
+      </c>
+      <c r="N262" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14519,6 +15343,9 @@
         <v>-0.4800000000000182</v>
       </c>
       <c r="M263" t="n">
+        <v>-0.5394412000000182</v>
+      </c>
+      <c r="N263" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -14574,6 +15401,9 @@
         <v>-0.2599999999999909</v>
       </c>
       <c r="M264" t="n">
+        <v>-0.3194125999999909</v>
+      </c>
+      <c r="N264" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -14629,6 +15459,9 @@
         <v>0.7999999999999545</v>
       </c>
       <c r="M265" t="n">
+        <v>0.5362039999999545</v>
+      </c>
+      <c r="N265" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -14684,6 +15517,9 @@
         <v>1.400000000000091</v>
       </c>
       <c r="M266" t="n">
+        <v>1.135970000000091</v>
+      </c>
+      <c r="N266" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -14739,6 +15575,9 @@
         <v>-1.200000000000045</v>
       </c>
       <c r="M267" t="n">
+        <v>-1.466916000000045</v>
+      </c>
+      <c r="N267" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -14794,6 +15633,9 @@
         <v>-0.05799999999999983</v>
       </c>
       <c r="M268" t="n">
+        <v>-0.06109815999999983</v>
+      </c>
+      <c r="N268" t="n">
         <v>-0.49</v>
       </c>
     </row>
@@ -14849,6 +15691,9 @@
         <v>0.003999999999999559</v>
       </c>
       <c r="M269" t="n">
+        <v>0.000893779999999559</v>
+      </c>
+      <c r="N269" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -14896,6 +15741,9 @@
         <v>0</v>
       </c>
       <c r="M270" t="n">
+        <v>-0.00310674</v>
+      </c>
+      <c r="N270" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14951,6 +15799,9 @@
         <v>0.1400000000000006</v>
       </c>
       <c r="M271" t="n">
+        <v>0.1075442000000006</v>
+      </c>
+      <c r="N271" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -15006,6 +15857,9 @@
         <v>-0.3000000000000114</v>
       </c>
       <c r="M272" t="n">
+        <v>-0.3323986000000114</v>
+      </c>
+      <c r="N272" t="n">
         <v>-0.24</v>
       </c>
     </row>
@@ -15061,6 +15915,9 @@
         <v>-0.06000000000000227</v>
       </c>
       <c r="M273" t="n">
+        <v>-0.1019978000000023</v>
+      </c>
+      <c r="N273" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -15116,6 +15973,9 @@
         <v>-1.819999999999993</v>
       </c>
       <c r="M274" t="n">
+        <v>-1.861956199999993</v>
+      </c>
+      <c r="N274" t="n">
         <v>-1.12</v>
       </c>
     </row>
@@ -15163,6 +16023,9 @@
         <v>0</v>
       </c>
       <c r="M275" t="n">
+        <v>-0.0417196</v>
+      </c>
+      <c r="N275" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15218,6 +16081,9 @@
         <v>0.08500000000000085</v>
       </c>
       <c r="M276" t="n">
+        <v>0.07214755000000085</v>
+      </c>
+      <c r="N276" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -15265,6 +16131,9 @@
         <v>0</v>
       </c>
       <c r="M277" t="n">
+        <v>-0.0128518</v>
+      </c>
+      <c r="N277" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15320,6 +16189,9 @@
         <v>11.60000000000014</v>
       </c>
       <c r="M278" t="n">
+        <v>11.23662400000014</v>
+      </c>
+      <c r="N278" t="n">
         <v>0.83</v>
       </c>
     </row>
@@ -15375,6 +16247,9 @@
         <v>-7.599999999999909</v>
       </c>
       <c r="M279" t="n">
+        <v>-7.963531999999909</v>
+      </c>
+      <c r="N279" t="n">
         <v>-0.54</v>
       </c>
     </row>
@@ -15430,6 +16305,9 @@
         <v>1</v>
       </c>
       <c r="M280" t="n">
+        <v>0.637586</v>
+      </c>
+      <c r="N280" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -15485,6 +16363,9 @@
         <v>0.1400000000000006</v>
       </c>
       <c r="M281" t="n">
+        <v>0.1240568000000006</v>
+      </c>
+      <c r="N281" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -15540,6 +16421,9 @@
         <v>0.1000000000000014</v>
       </c>
       <c r="M282" t="n">
+        <v>0.08405160000000141</v>
+      </c>
+      <c r="N282" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -15595,6 +16479,9 @@
         <v>-0.1999999999999957</v>
       </c>
       <c r="M283" t="n">
+        <v>-0.2159093999999957</v>
+      </c>
+      <c r="N283" t="n">
         <v>-0.33</v>
       </c>
     </row>
@@ -15650,6 +16537,9 @@
         <v>0.2000000000000028</v>
       </c>
       <c r="M284" t="n">
+        <v>0.1841426000000028</v>
+      </c>
+      <c r="N284" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -15705,6 +16595,9 @@
         <v>0.1800000000000068</v>
       </c>
       <c r="M285" t="n">
+        <v>0.1543692000000068</v>
+      </c>
+      <c r="N285" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -15760,6 +16653,9 @@
         <v>0.4000000000000057</v>
       </c>
       <c r="M286" t="n">
+        <v>0.3743978000000057</v>
+      </c>
+      <c r="N286" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -15815,6 +16711,9 @@
         <v>0.06000000000000227</v>
       </c>
       <c r="M287" t="n">
+        <v>0.03438220000000227</v>
+      </c>
+      <c r="N287" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -15870,6 +16769,9 @@
         <v>0.09000000000000341</v>
       </c>
       <c r="M288" t="n">
+        <v>0.06437830000000341</v>
+      </c>
+      <c r="N288" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -15925,6 +16827,9 @@
         <v>0.01999999999999602</v>
       </c>
       <c r="M289" t="n">
+        <v>-0.005591800000003977</v>
+      </c>
+      <c r="N289" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -15980,6 +16885,9 @@
         <v>0.1799999999999926</v>
       </c>
       <c r="M290" t="n">
+        <v>0.1544289999999926</v>
+      </c>
+      <c r="N290" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -16035,6 +16943,9 @@
         <v>-0.2900000000000063</v>
       </c>
       <c r="M291" t="n">
+        <v>-0.3155099000000063</v>
+      </c>
+      <c r="N291" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -16082,6 +16993,9 @@
         <v>0</v>
       </c>
       <c r="M292" t="n">
+        <v>-0.02544099999999999</v>
+      </c>
+      <c r="N292" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16137,6 +17051,9 @@
         <v>0.06000000000000227</v>
       </c>
       <c r="M293" t="n">
+        <v>0.04537760000000227</v>
+      </c>
+      <c r="N293" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -16192,6 +17109,9 @@
         <v>0.1500000000000057</v>
       </c>
       <c r="M294" t="n">
+        <v>0.1353893000000057</v>
+      </c>
+      <c r="N294" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -16247,6 +17167,9 @@
         <v>-0.07000000000000028</v>
       </c>
       <c r="M295" t="n">
+        <v>-0.08458210000000028</v>
+      </c>
+      <c r="N295" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -16302,6 +17225,9 @@
         <v>0.07000000000000028</v>
       </c>
       <c r="M296" t="n">
+        <v>0.05543610000000029</v>
+      </c>
+      <c r="N296" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -16357,6 +17283,9 @@
         <v>-0.03000000000000114</v>
       </c>
       <c r="M297" t="n">
+        <v>-0.04454570000000114</v>
+      </c>
+      <c r="N297" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -16412,6 +17341,9 @@
         <v>0.1899999999999977</v>
       </c>
       <c r="M298" t="n">
+        <v>0.1754802999999977</v>
+      </c>
+      <c r="N298" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -16459,6 +17391,9 @@
         <v>0</v>
       </c>
       <c r="M299" t="n">
+        <v>-0.0145236</v>
+      </c>
+      <c r="N299" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16514,6 +17449,9 @@
         <v>2.659999999999997</v>
       </c>
       <c r="M300" t="n">
+        <v>2.620851799999997</v>
+      </c>
+      <c r="N300" t="n">
         <v>1.78</v>
       </c>
     </row>
@@ -16569,6 +17507,9 @@
         <v>2.640000000000015</v>
       </c>
       <c r="M301" t="n">
+        <v>2.599622000000015</v>
+      </c>
+      <c r="N301" t="n">
         <v>1.71</v>
       </c>
     </row>
@@ -16616,6 +17557,9 @@
         <v>0</v>
       </c>
       <c r="M302" t="n">
+        <v>-0.040014</v>
+      </c>
+      <c r="N302" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16671,6 +17615,9 @@
         <v>0.05499999999999972</v>
       </c>
       <c r="M303" t="n">
+        <v>0.04969404999999972</v>
+      </c>
+      <c r="N303" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -16726,6 +17673,9 @@
         <v>-0.00700000000000145</v>
       </c>
       <c r="M304" t="n">
+        <v>-0.01231583000000145</v>
+      </c>
+      <c r="N304" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -16781,6 +17731,9 @@
         <v>0.0259999999999998</v>
       </c>
       <c r="M305" t="n">
+        <v>0.0206920999999998</v>
+      </c>
+      <c r="N305" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -16836,6 +17789,9 @@
         <v>-0.1060000000000016</v>
       </c>
       <c r="M306" t="n">
+        <v>-0.1112907400000016</v>
+      </c>
+      <c r="N306" t="n">
         <v>-0.52</v>
       </c>
     </row>
@@ -16891,6 +17847,9 @@
         <v>-0.02500000000000213</v>
       </c>
       <c r="M307" t="n">
+        <v>-0.03028021000000213</v>
+      </c>
+      <c r="N307" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -16946,6 +17905,9 @@
         <v>2.25</v>
       </c>
       <c r="M308" t="n">
+        <v>2.0731285</v>
+      </c>
+      <c r="N308" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -17001,6 +17963,9 @@
         <v>1.399999999999977</v>
       </c>
       <c r="M309" t="n">
+        <v>1.223316999999977</v>
+      </c>
+      <c r="N309" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -17056,6 +18021,9 @@
         <v>2.100000000000023</v>
       </c>
       <c r="M310" t="n">
+        <v>1.923408000000023</v>
+      </c>
+      <c r="N310" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -17111,6 +18079,9 @@
         <v>-0.2299999999999898</v>
       </c>
       <c r="M311" t="n">
+        <v>-0.2705638999999898</v>
+      </c>
+      <c r="N311" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -17166,6 +18137,9 @@
         <v>0.1100000000000136</v>
       </c>
       <c r="M312" t="n">
+        <v>0.06948030000001361</v>
+      </c>
+      <c r="N312" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -17221,6 +18195,9 @@
         <v>0.460000000000008</v>
       </c>
       <c r="M313" t="n">
+        <v>0.419434800000008</v>
+      </c>
+      <c r="N313" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -17276,6 +18253,9 @@
         <v>2.439999999999998</v>
       </c>
       <c r="M314" t="n">
+        <v>2.399471199999998</v>
+      </c>
+      <c r="N314" t="n">
         <v>1.55</v>
       </c>
     </row>
@@ -17331,6 +18311,9 @@
         <v>0.03999999999999204</v>
       </c>
       <c r="M315" t="n">
+        <v>-0.0001908000000079534</v>
+      </c>
+      <c r="N315" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -17386,6 +18369,9 @@
         <v>1.530000000000001</v>
       </c>
       <c r="M316" t="n">
+        <v>1.489631100000001</v>
+      </c>
+      <c r="N316" t="n">
         <v>0.9900000000000001</v>
       </c>
     </row>
@@ -17433,6 +18419,9 @@
         <v>0</v>
       </c>
       <c r="M317" t="n">
+        <v>-0.0402636</v>
+      </c>
+      <c r="N317" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17488,6 +18477,9 @@
         <v>0.0002400000000000041</v>
       </c>
       <c r="M318" t="n">
+        <v>0.0002146864000000041</v>
+      </c>
+      <c r="N318" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -17543,6 +18535,9 @@
         <v>-0.0007399999999999907</v>
       </c>
       <c r="M319" t="n">
+        <v>-0.0007654409999999906</v>
+      </c>
+      <c r="N319" t="n">
         <v>-0.76</v>
       </c>
     </row>
@@ -17598,6 +18593,9 @@
         <v>-0.000800000000000009</v>
       </c>
       <c r="M320" t="n">
+        <v>-0.000825428000000009</v>
+      </c>
+      <c r="N320" t="n">
         <v>-0.8099999999999999</v>
       </c>
     </row>
@@ -17653,6 +18651,9 @@
         <v>-0.0001000000000000029</v>
       </c>
       <c r="M321" t="n">
+        <v>-0.0001252694000000029</v>
+      </c>
+      <c r="N321" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -17700,6 +18701,9 @@
         <v>0</v>
       </c>
       <c r="M322" t="n">
+        <v>-2.52668e-05</v>
+      </c>
+      <c r="N322" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17755,6 +18759,9 @@
         <v>-1.25</v>
       </c>
       <c r="M323" t="n">
+        <v>-2.0144845</v>
+      </c>
+      <c r="N323" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -17802,6 +18809,9 @@
         <v>0</v>
       </c>
       <c r="M324" t="n">
+        <v>-0.7657389999999999</v>
+      </c>
+      <c r="N324" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17847,10 +18857,19 @@
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
-      <c r="M325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>0</v>
+      </c>
+      <c r="K325" t="n">
+        <v>0</v>
+      </c>
+      <c r="L325" t="n">
+        <v>0</v>
+      </c>
+      <c r="M325" t="n">
+        <v>0</v>
+      </c>
+      <c r="N325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -17904,6 +18923,9 @@
         <v>0.3700000000000045</v>
       </c>
       <c r="M326" t="n">
+        <v>0.2976433000000045</v>
+      </c>
+      <c r="N326" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -17959,6 +18981,9 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="M327" t="n">
+        <v>-0.02230469999998862</v>
+      </c>
+      <c r="N327" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -18014,6 +19039,9 @@
         <v>-0.4599999999999795</v>
       </c>
       <c r="M328" t="n">
+        <v>-0.5323397999999795</v>
+      </c>
+      <c r="N328" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -18069,6 +19097,9 @@
         <v>0.04999999999995453</v>
       </c>
       <c r="M329" t="n">
+        <v>-0.02254130000004546</v>
+      </c>
+      <c r="N329" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -18124,6 +19155,9 @@
         <v>-0.8499999999999659</v>
       </c>
       <c r="M330" t="n">
+        <v>-0.9227284999999659</v>
+      </c>
+      <c r="N330" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -18179,6 +19213,9 @@
         <v>0.3700000000000045</v>
       </c>
       <c r="M331" t="n">
+        <v>0.2976433000000045</v>
+      </c>
+      <c r="N331" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -18234,6 +19271,9 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="M332" t="n">
+        <v>-0.02230469999998862</v>
+      </c>
+      <c r="N332" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -18289,6 +19329,9 @@
         <v>-0.4599999999999795</v>
       </c>
       <c r="M333" t="n">
+        <v>-0.5323397999999795</v>
+      </c>
+      <c r="N333" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -18344,6 +19387,9 @@
         <v>0.04999999999995453</v>
       </c>
       <c r="M334" t="n">
+        <v>-0.02254130000004546</v>
+      </c>
+      <c r="N334" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -18399,6 +19445,9 @@
         <v>-0.8499999999999659</v>
       </c>
       <c r="M335" t="n">
+        <v>-0.9227284999999659</v>
+      </c>
+      <c r="N335" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -18454,6 +19503,9 @@
         <v>0.08999999999997499</v>
       </c>
       <c r="M336" t="n">
+        <v>0.017547099999975</v>
+      </c>
+      <c r="N336" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -18509,6 +19561,9 @@
         <v>-0.5500000000000114</v>
       </c>
       <c r="M337" t="n">
+        <v>-0.6225907000000113</v>
+      </c>
+      <c r="N337" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -18564,6 +19619,9 @@
         <v>0.5199999999999818</v>
       </c>
       <c r="M338" t="n">
+        <v>0.4472701999999818</v>
+      </c>
+      <c r="N338" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -18619,6 +19677,9 @@
         <v>-0.8699999999999477</v>
       </c>
       <c r="M339" t="n">
+        <v>-0.9429546999999477</v>
+      </c>
+      <c r="N339" t="n">
         <v>-0.31</v>
       </c>
     </row>
@@ -18674,6 +19735,9 @@
         <v>-0.230000000000004</v>
       </c>
       <c r="M340" t="n">
+        <v>-0.263221500000004</v>
+      </c>
+      <c r="N340" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -18729,6 +19793,9 @@
         <v>0.01999999999999602</v>
       </c>
       <c r="M341" t="n">
+        <v>-0.01318120000000397</v>
+      </c>
+      <c r="N341" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -18784,6 +19851,9 @@
         <v>0.1500000000000057</v>
       </c>
       <c r="M342" t="n">
+        <v>0.1167265000000057</v>
+      </c>
+      <c r="N342" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -18831,6 +19901,9 @@
         <v>0</v>
       </c>
       <c r="M343" t="n">
+        <v>-0.0333294</v>
+      </c>
+      <c r="N343" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18886,6 +19959,9 @@
         <v>2</v>
       </c>
       <c r="M344" t="n">
+        <v>0.3427600000000002</v>
+      </c>
+      <c r="N344" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -18941,6 +20017,9 @@
         <v>0</v>
       </c>
       <c r="M345" t="n">
+        <v>-1.65698</v>
+      </c>
+      <c r="N345" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18996,6 +20075,9 @@
         <v>-51.5</v>
       </c>
       <c r="M346" t="n">
+        <v>-53.151585</v>
+      </c>
+      <c r="N346" t="n">
         <v>-0.8099999999999999</v>
       </c>
     </row>
@@ -19051,6 +20133,9 @@
         <v>7.5</v>
       </c>
       <c r="M347" t="n">
+        <v>5.827355000000001</v>
+      </c>
+      <c r="N347" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -19106,6 +20191,9 @@
         <v>-0.1499999999999773</v>
       </c>
       <c r="M348" t="n">
+        <v>-0.2789924999999773</v>
+      </c>
+      <c r="N348" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -19161,6 +20249,9 @@
         <v>-0.1000000000000227</v>
       </c>
       <c r="M349" t="n">
+        <v>-0.2296880000000227</v>
+      </c>
+      <c r="N349" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -19208,6 +20299,9 @@
         <v>0</v>
       </c>
       <c r="M350" t="n">
+        <v>-0.129675</v>
+      </c>
+      <c r="N350" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19263,6 +20357,9 @@
         <v>0.3700000000000045</v>
       </c>
       <c r="M351" t="n">
+        <v>0.3116287000000045</v>
+      </c>
+      <c r="N351" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -19318,6 +20415,9 @@
         <v>0.7700000000000102</v>
       </c>
       <c r="M352" t="n">
+        <v>0.7115767000000103</v>
+      </c>
+      <c r="N352" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -19365,6 +20465,9 @@
         <v>0</v>
       </c>
       <c r="M353" t="n">
+        <v>-0.05873659999999999</v>
+      </c>
+      <c r="N353" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19420,6 +20523,9 @@
         <v>-13.59999999999991</v>
       </c>
       <c r="M354" t="n">
+        <v>-13.86618799999991</v>
+      </c>
+      <c r="N354" t="n">
         <v>-1.34</v>
       </c>
     </row>
@@ -19475,6 +20581,9 @@
         <v>-0.005000000000000782</v>
       </c>
       <c r="M355" t="n">
+        <v>-0.008104010000000782</v>
+      </c>
+      <c r="N355" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -19530,6 +20639,9 @@
         <v>-0.003000000000000114</v>
       </c>
       <c r="M356" t="n">
+        <v>-0.006109730000000113</v>
+      </c>
+      <c r="N356" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -19585,6 +20697,9 @@
         <v>0.7000000000000028</v>
       </c>
       <c r="M357" t="n">
+        <v>0.6678302000000028</v>
+      </c>
+      <c r="N357" t="n">
         <v>0.5700000000000001</v>
       </c>
     </row>
@@ -19640,6 +20755,9 @@
         <v>0.1400000000000006</v>
       </c>
       <c r="M358" t="n">
+        <v>0.1078562000000006</v>
+      </c>
+      <c r="N358" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -19687,6 +20805,9 @@
         <v>0</v>
       </c>
       <c r="M359" t="n">
+        <v>-0.032162</v>
+      </c>
+      <c r="N359" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19742,6 +20863,9 @@
         <v>0.1800000000000068</v>
       </c>
       <c r="M360" t="n">
+        <v>0.1387146000000068</v>
+      </c>
+      <c r="N360" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -19797,6 +20921,9 @@
         <v>0.09999999999999432</v>
       </c>
       <c r="M361" t="n">
+        <v>0.05864179999999432</v>
+      </c>
+      <c r="N361" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -19852,6 +20979,9 @@
         <v>-2.400000000000006</v>
       </c>
       <c r="M362" t="n">
+        <v>-2.441709200000006</v>
+      </c>
+      <c r="N362" t="n">
         <v>-1.51</v>
       </c>
     </row>
@@ -19899,6 +21029,9 @@
         <v>0</v>
       </c>
       <c r="M363" t="n">
+        <v>-0.042094</v>
+      </c>
+      <c r="N363" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19954,6 +21087,9 @@
         <v>0.01500000000000057</v>
       </c>
       <c r="M364" t="n">
+        <v>0.002247650000000571</v>
+      </c>
+      <c r="N364" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -20009,6 +21145,9 @@
         <v>0.9099999999999966</v>
       </c>
       <c r="M365" t="n">
+        <v>0.8971481999999966</v>
+      </c>
+      <c r="N365" t="n">
         <v>1.86</v>
       </c>
     </row>
@@ -20056,6 +21195,9 @@
         <v>0</v>
       </c>
       <c r="M366" t="n">
+        <v>-0.0129974</v>
+      </c>
+      <c r="N366" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20111,6 +21253,9 @@
         <v>8.400000000000091</v>
       </c>
       <c r="M367" t="n">
+        <v>8.039952000000092</v>
+      </c>
+      <c r="N367" t="n">
         <v>0.61</v>
       </c>
     </row>
@@ -20158,6 +21303,9 @@
         <v>0</v>
       </c>
       <c r="M368" t="n">
+        <v>-0.3605679999999999</v>
+      </c>
+      <c r="N368" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20213,6 +21361,9 @@
         <v>0.2899999999999991</v>
       </c>
       <c r="M369" t="n">
+        <v>0.2741022999999991</v>
+      </c>
+      <c r="N369" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -20268,6 +21419,9 @@
         <v>0.2299999999999969</v>
       </c>
       <c r="M370" t="n">
+        <v>0.2140944999999969</v>
+      </c>
+      <c r="N370" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -20323,6 +21477,9 @@
         <v>0.4399999999999977</v>
       </c>
       <c r="M371" t="n">
+        <v>0.4147721999999977</v>
+      </c>
+      <c r="N371" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -20378,6 +21535,9 @@
         <v>0.210000000000008</v>
       </c>
       <c r="M372" t="n">
+        <v>0.184783900000008</v>
+      </c>
+      <c r="N372" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -20433,6 +21593,9 @@
         <v>0.00999999999999801</v>
       </c>
       <c r="M373" t="n">
+        <v>-0.004389700000001989</v>
+      </c>
+      <c r="N373" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -20480,6 +21643,9 @@
         <v>0</v>
       </c>
       <c r="M374" t="n">
+        <v>-0.0143832</v>
+      </c>
+      <c r="N374" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20535,6 +21701,9 @@
         <v>0.5</v>
       </c>
       <c r="M375" t="n">
+        <v>0.4609558</v>
+      </c>
+      <c r="N375" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -20590,6 +21759,9 @@
         <v>0.2999999999999829</v>
       </c>
       <c r="M376" t="n">
+        <v>0.2610701999999829</v>
+      </c>
+      <c r="N376" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -20645,6 +21817,9 @@
         <v>0.5199999999999818</v>
       </c>
       <c r="M377" t="n">
+        <v>0.4810415999999819</v>
+      </c>
+      <c r="N377" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -20700,6 +21875,9 @@
         <v>-0.001199999999999979</v>
       </c>
       <c r="M378" t="n">
+        <v>-0.001276725999999979</v>
+      </c>
+      <c r="N378" t="n">
         <v>-0.41</v>
       </c>
     </row>
@@ -20747,6 +21925,9 @@
         <v>0</v>
       </c>
       <c r="M379" t="n">
+        <v>-7.685599999999998e-05</v>
+      </c>
+      <c r="N379" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20802,6 +21983,9 @@
         <v>0.05799999999999983</v>
       </c>
       <c r="M380" t="n">
+        <v>0.05282859999999984</v>
+      </c>
+      <c r="N380" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -20857,6 +22041,9 @@
         <v>-0.09199999999999875</v>
       </c>
       <c r="M381" t="n">
+        <v>-0.09717633999999875</v>
+      </c>
+      <c r="N381" t="n">
         <v>-0.46</v>
       </c>
     </row>
@@ -20912,6 +22099,9 @@
         <v>0.01500000000000057</v>
       </c>
       <c r="M382" t="n">
+        <v>0.009809750000000571</v>
+      </c>
+      <c r="N382" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -20967,6 +22157,9 @@
         <v>-0.1380000000000017</v>
       </c>
       <c r="M383" t="n">
+        <v>-0.1432101400000017</v>
+      </c>
+      <c r="N383" t="n">
         <v>-0.6899999999999999</v>
       </c>
     </row>
@@ -21014,6 +22207,9 @@
         <v>0</v>
       </c>
       <c r="M384" t="n">
+        <v>-0.00522808</v>
+      </c>
+      <c r="N384" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21069,6 +22265,9 @@
         <v>0.75</v>
       </c>
       <c r="M385" t="n">
+        <v>0.5771325</v>
+      </c>
+      <c r="N385" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -21124,6 +22323,9 @@
         <v>0.2000000000000455</v>
       </c>
       <c r="M386" t="n">
+        <v>0.02703500000004552</v>
+      </c>
+      <c r="N386" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -21179,6 +22381,9 @@
         <v>-1.600000000000023</v>
       </c>
       <c r="M387" t="n">
+        <v>-1.774681000000023</v>
+      </c>
+      <c r="N387" t="n">
         <v>-0.24</v>
       </c>
     </row>
@@ -21226,6 +22431,9 @@
         <v>0</v>
       </c>
       <c r="M388" t="n">
+        <v>-0.174889</v>
+      </c>
+      <c r="N388" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21281,6 +22489,9 @@
         <v>0.4000000000000057</v>
       </c>
       <c r="M389" t="n">
+        <v>0.3611170000000057</v>
+      </c>
+      <c r="N389" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -21326,10 +22537,19 @@
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr"/>
-      <c r="M390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>0</v>
+      </c>
+      <c r="K390" t="n">
+        <v>0</v>
+      </c>
+      <c r="L390" t="n">
+        <v>0</v>
+      </c>
+      <c r="M390" t="n">
+        <v>0</v>
+      </c>
+      <c r="N390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
@@ -21383,6 +22603,9 @@
         <v>0.08999999999997499</v>
       </c>
       <c r="M391" t="n">
+        <v>0.01310109999997499</v>
+      </c>
+      <c r="N391" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -21430,6 +22653,9 @@
         <v>0</v>
       </c>
       <c r="M392" t="n">
+        <v>-0.07690799999999999</v>
+      </c>
+      <c r="N392" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21485,6 +22711,9 @@
         <v>0</v>
       </c>
       <c r="M393" t="n">
+        <v>-1.81246</v>
+      </c>
+      <c r="N393" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21540,6 +22769,9 @@
         <v>-10</v>
       </c>
       <c r="M394" t="n">
+        <v>-11.81116</v>
+      </c>
+      <c r="N394" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -21595,6 +22827,9 @@
         <v>-0.3000000000000682</v>
       </c>
       <c r="M395" t="n">
+        <v>-0.4394380000000682</v>
+      </c>
+      <c r="N395" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -21650,6 +22885,9 @@
         <v>5.600000000000136</v>
       </c>
       <c r="M396" t="n">
+        <v>5.314624000000136</v>
+      </c>
+      <c r="N396" t="n">
         <v>0.51</v>
       </c>
     </row>
@@ -21697,6 +22935,9 @@
         <v>0</v>
       </c>
       <c r="M397" t="n">
+        <v>-0.04386199999999999</v>
+      </c>
+      <c r="N397" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21752,6 +22993,9 @@
         <v>0.5999999999999091</v>
       </c>
       <c r="M398" t="n">
+        <v>0.2191779999999091</v>
+      </c>
+      <c r="N398" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -21799,6 +23043,9 @@
         <v>0</v>
       </c>
       <c r="M399" t="n">
+        <v>-0.016666</v>
+      </c>
+      <c r="N399" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21846,6 +23093,9 @@
         <v>0</v>
       </c>
       <c r="M400" t="n">
+        <v>-0.0153738</v>
+      </c>
+      <c r="N400" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21893,6 +23143,9 @@
         <v>0</v>
       </c>
       <c r="M401" t="n">
+        <v>-0.03793919999999999</v>
+      </c>
+      <c r="N401" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21940,6 +23193,9 @@
         <v>0</v>
       </c>
       <c r="M402" t="n">
+        <v>-0.023452</v>
+      </c>
+      <c r="N402" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21995,6 +23251,9 @@
         <v>0.839999999999975</v>
       </c>
       <c r="M403" t="n">
+        <v>0.745903399999975</v>
+      </c>
+      <c r="N403" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -22050,6 +23309,9 @@
         <v>9.42999999999995</v>
       </c>
       <c r="M404" t="n">
+        <v>9.33475809999995</v>
+      </c>
+      <c r="N404" t="n">
         <v>2.61</v>
       </c>
     </row>
@@ -22097,6 +23359,9 @@
         <v>0</v>
       </c>
       <c r="M405" t="n">
+        <v>-2.57608e-05</v>
+      </c>
+      <c r="N405" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22152,6 +23417,9 @@
         <v>-7.099999999999909</v>
       </c>
       <c r="M406" t="n">
+        <v>-7.91099199999991</v>
+      </c>
+      <c r="N406" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -22199,6 +23467,9 @@
         <v>0</v>
       </c>
       <c r="M407" t="n">
+        <v>-0.8119149999999999</v>
+      </c>
+      <c r="N407" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22246,6 +23517,9 @@
         <v>0</v>
       </c>
       <c r="M408" t="n">
+        <v>-0.009978799999999999</v>
+      </c>
+      <c r="N408" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22301,6 +23575,9 @@
         <v>0.5</v>
       </c>
       <c r="M409" t="n">
+        <v>0.327555</v>
+      </c>
+      <c r="N409" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -22356,6 +23633,9 @@
         <v>3.100000000000023</v>
       </c>
       <c r="M410" t="n">
+        <v>2.927347000000023</v>
+      </c>
+      <c r="N410" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -22403,6 +23683,9 @@
         <v>0</v>
       </c>
       <c r="M411" t="n">
+        <v>-0.173264</v>
+      </c>
+      <c r="N411" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22448,10 +23731,19 @@
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
-      <c r="L412" t="inlineStr"/>
-      <c r="M412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>0</v>
+      </c>
+      <c r="K412" t="n">
+        <v>0</v>
+      </c>
+      <c r="L412" t="n">
+        <v>0</v>
+      </c>
+      <c r="M412" t="n">
+        <v>0</v>
+      </c>
+      <c r="N412" t="inlineStr"/>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
@@ -22505,6 +23797,9 @@
         <v>0.8999999999999773</v>
       </c>
       <c r="M413" t="n">
+        <v>0.8221429999999773</v>
+      </c>
+      <c r="N413" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -22560,6 +23855,9 @@
         <v>1.950000000000045</v>
       </c>
       <c r="M414" t="n">
+        <v>1.872422500000045</v>
+      </c>
+      <c r="N414" t="n">
         <v>0.65</v>
       </c>
     </row>
@@ -22615,6 +23913,9 @@
         <v>1.420000000000016</v>
       </c>
       <c r="M415" t="n">
+        <v>1.342525200000016</v>
+      </c>
+      <c r="N415" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -22670,6 +23971,9 @@
         <v>-1.490000000000009</v>
       </c>
       <c r="M416" t="n">
+        <v>-1.566878100000009</v>
+      </c>
+      <c r="N416" t="n">
         <v>-0.5</v>
       </c>
     </row>
@@ -22725,6 +24029,9 @@
         <v>0.910000000000025</v>
       </c>
       <c r="M417" t="n">
+        <v>0.833433900000025</v>
+      </c>
+      <c r="N417" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -22780,6 +24087,9 @@
         <v>1.25</v>
       </c>
       <c r="M418" t="n">
+        <v>1.1733897</v>
+      </c>
+      <c r="N418" t="n">
         <v>0.43</v>
       </c>
     </row>
@@ -22827,6 +24137,9 @@
         <v>0</v>
       </c>
       <c r="M419" t="n">
+        <v>-0.07657519999999998</v>
+      </c>
+      <c r="N419" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22882,6 +24195,9 @@
         <v>-0.8799999999999955</v>
       </c>
       <c r="M420" t="n">
+        <v>-0.9148425999999954</v>
+      </c>
+      <c r="N420" t="n">
         <v>-0.65</v>
       </c>
     </row>
@@ -22937,6 +24253,9 @@
         <v>0.5199999999999818</v>
       </c>
       <c r="M421" t="n">
+        <v>0.4853133999999818</v>
+      </c>
+      <c r="N421" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -22992,6 +24311,9 @@
         <v>-0.03999999999999204</v>
       </c>
       <c r="M422" t="n">
+        <v>-0.07461639999999203</v>
+      </c>
+      <c r="N422" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -23039,6 +24361,9 @@
         <v>0</v>
       </c>
       <c r="M423" t="n">
+        <v>-0.03524819999999999</v>
+      </c>
+      <c r="N423" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23094,6 +24419,9 @@
         <v>7.5</v>
       </c>
       <c r="M424" t="n">
+        <v>5.697485</v>
+      </c>
+      <c r="N424" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -23149,6 +24477,9 @@
         <v>43</v>
       </c>
       <c r="M425" t="n">
+        <v>41.19885</v>
+      </c>
+      <c r="N425" t="n">
         <v>0.62</v>
       </c>
     </row>
@@ -23204,6 +24535,9 @@
         <v>46</v>
       </c>
       <c r="M426" t="n">
+        <v>44.20847</v>
+      </c>
+      <c r="N426" t="n">
         <v>0.67</v>
       </c>
     </row>
@@ -23259,6 +24593,9 @@
         <v>-35.5</v>
       </c>
       <c r="M427" t="n">
+        <v>-37.298095</v>
+      </c>
+      <c r="N427" t="n">
         <v>-0.51</v>
       </c>
     </row>
@@ -23314,6 +24651,9 @@
         <v>-0.7000000000000455</v>
       </c>
       <c r="M428" t="n">
+        <v>-0.8354990000000455</v>
+      </c>
+      <c r="N428" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -23369,6 +24709,9 @@
         <v>-0.8500000000000227</v>
       </c>
       <c r="M429" t="n">
+        <v>-0.9854795000000228</v>
+      </c>
+      <c r="N429" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -23416,6 +24759,9 @@
         <v>0</v>
       </c>
       <c r="M430" t="n">
+        <v>-0.136123</v>
+      </c>
+      <c r="N430" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23471,6 +24817,9 @@
         <v>-2.400000000000091</v>
       </c>
       <c r="M431" t="n">
+        <v>-2.684960000000091</v>
+      </c>
+      <c r="N431" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -23526,6 +24875,9 @@
         <v>-2.600000000000136</v>
       </c>
       <c r="M432" t="n">
+        <v>-2.884154000000136</v>
+      </c>
+      <c r="N432" t="n">
         <v>-0.24</v>
       </c>
     </row>
@@ -23581,6 +24933,9 @@
         <v>13</v>
       </c>
       <c r="M433" t="n">
+        <v>12.717874</v>
+      </c>
+      <c r="N433" t="n">
         <v>1.19</v>
       </c>
     </row>
@@ -23636,6 +24991,9 @@
         <v>-4.199999999999818</v>
       </c>
       <c r="M434" t="n">
+        <v>-4.479889999999818</v>
+      </c>
+      <c r="N434" t="n">
         <v>-0.39</v>
       </c>
     </row>
@@ -23691,6 +25049,9 @@
         <v>0.8000000000001819</v>
       </c>
       <c r="M435" t="n">
+        <v>0.520760000000182</v>
+      </c>
+      <c r="N435" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -23746,6 +25107,9 @@
         <v>-2.400000000000091</v>
       </c>
       <c r="M436" t="n">
+        <v>-2.676068000000091</v>
+      </c>
+      <c r="N436" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -23801,6 +25165,9 @@
         <v>10.40000000000009</v>
       </c>
       <c r="M437" t="n">
+        <v>10.12226800000009</v>
+      </c>
+      <c r="N437" t="n">
         <v>0.98</v>
       </c>
     </row>
@@ -23856,6 +25223,9 @@
         <v>-0.2800000000000011</v>
       </c>
       <c r="M438" t="n">
+        <v>-0.3139768000000011</v>
+      </c>
+      <c r="N438" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -23911,6 +25281,9 @@
         <v>0.1800000000000068</v>
       </c>
       <c r="M439" t="n">
+        <v>0.1459634000000068</v>
+      </c>
+      <c r="N439" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -23966,6 +25339,9 @@
         <v>2.419999999999987</v>
       </c>
       <c r="M440" t="n">
+        <v>2.386254599999987</v>
+      </c>
+      <c r="N440" t="n">
         <v>1.85</v>
       </c>
     </row>
@@ -24021,6 +25397,9 @@
         <v>0.06000000000000227</v>
       </c>
       <c r="M441" t="n">
+        <v>0.02686300000000227</v>
+      </c>
+      <c r="N441" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -24068,6 +25447,9 @@
         <v>0</v>
       </c>
       <c r="M442" t="n">
+        <v>-0.0326092</v>
+      </c>
+      <c r="N442" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24123,6 +25505,9 @@
         <v>0.2199999999999989</v>
       </c>
       <c r="M443" t="n">
+        <v>0.1748873999999989</v>
+      </c>
+      <c r="N443" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -24178,6 +25563,9 @@
         <v>-0.2849999999999966</v>
       </c>
       <c r="M444" t="n">
+        <v>-0.2986129499999966</v>
+      </c>
+      <c r="N444" t="n">
         <v>-0.54</v>
       </c>
     </row>
@@ -24233,6 +25621,9 @@
         <v>-0.08499999999999375</v>
       </c>
       <c r="M445" t="n">
+        <v>-0.09858304999999375</v>
+      </c>
+      <c r="N445" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -24280,6 +25671,9 @@
         <v>0</v>
       </c>
       <c r="M446" t="n">
+        <v>-0.0135434</v>
+      </c>
+      <c r="N446" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24335,6 +25729,9 @@
         <v>1.599999999999909</v>
       </c>
       <c r="M447" t="n">
+        <v>1.220191999999909</v>
+      </c>
+      <c r="N447" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -24390,6 +25787,9 @@
         <v>-31.59999999999991</v>
       </c>
       <c r="M448" t="n">
+        <v>-31.97257999999991</v>
+      </c>
+      <c r="N448" t="n">
         <v>-2.18</v>
       </c>
     </row>
@@ -24437,6 +25837,9 @@
         <v>0</v>
       </c>
       <c r="M449" t="n">
+        <v>-0.368472</v>
+      </c>
+      <c r="N449" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24492,6 +25895,9 @@
         <v>-0.00999999999999801</v>
       </c>
       <c r="M450" t="n">
+        <v>-0.02651909999999801</v>
+      </c>
+      <c r="N450" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -24547,6 +25953,9 @@
         <v>0.240000000000002</v>
       </c>
       <c r="M451" t="n">
+        <v>0.223448400000002</v>
+      </c>
+      <c r="N451" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -24602,6 +26011,9 @@
         <v>0.6400000000000006</v>
       </c>
       <c r="M452" t="n">
+        <v>0.6234978000000005</v>
+      </c>
+      <c r="N452" t="n">
         <v>1</v>
       </c>
     </row>
@@ -24649,6 +26061,9 @@
         <v>0</v>
       </c>
       <c r="M453" t="n">
+        <v>-0.0158054</v>
+      </c>
+      <c r="N453" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24704,6 +26119,9 @@
         <v>1.039999999999999</v>
       </c>
       <c r="M454" t="n">
+        <v>1.025086399999999</v>
+      </c>
+      <c r="N454" t="n">
         <v>1.8</v>
       </c>
     </row>
@@ -24751,6 +26169,9 @@
         <v>0</v>
       </c>
       <c r="M455" t="n">
+        <v>-0.0146978</v>
+      </c>
+      <c r="N455" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24806,6 +26227,9 @@
         <v>-3.939999999999998</v>
       </c>
       <c r="M456" t="n">
+        <v>-3.977140999999998</v>
+      </c>
+      <c r="N456" t="n">
         <v>-2.72</v>
       </c>
     </row>
@@ -24861,6 +26285,9 @@
         <v>0.08999999999999631</v>
       </c>
       <c r="M457" t="n">
+        <v>0.0748068999999963</v>
+      </c>
+      <c r="N457" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -24908,6 +26335,9 @@
         <v>0</v>
       </c>
       <c r="M458" t="n">
+        <v>-0.0146276</v>
+      </c>
+      <c r="N458" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24963,6 +26393,9 @@
         <v>-3.54000000000002</v>
       </c>
       <c r="M459" t="n">
+        <v>-3.63972040000002</v>
+      </c>
+      <c r="N459" t="n">
         <v>-0.9299999999999999</v>
       </c>
     </row>
@@ -25018,6 +26451,9 @@
         <v>0.003379999999999994</v>
       </c>
       <c r="M460" t="n">
+        <v>0.003354168999999994</v>
+      </c>
+      <c r="N460" t="n">
         <v>3.35</v>
       </c>
     </row>
@@ -25065,6 +26501,9 @@
         <v>0</v>
       </c>
       <c r="M461" t="n">
+        <v>-2.57192e-05</v>
+      </c>
+      <c r="N461" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25120,6 +26559,9 @@
         <v>0.1999999999998181</v>
       </c>
       <c r="M462" t="n">
+        <v>-0.6141640000001819</v>
+      </c>
+      <c r="N462" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -25175,6 +26617,9 @@
         <v>22.5</v>
       </c>
       <c r="M463" t="n">
+        <v>21.688423</v>
+      </c>
+      <c r="N463" t="n">
         <v>0.72</v>
       </c>
     </row>
@@ -25230,6 +26675,9 @@
         <v>40.25</v>
       </c>
       <c r="M464" t="n">
+        <v>39.4438635</v>
+      </c>
+      <c r="N464" t="n">
         <v>1.29</v>
       </c>
     </row>
@@ -25285,6 +26733,9 @@
         <v>38.45000000000027</v>
       </c>
       <c r="M465" t="n">
+        <v>37.65197550000028</v>
+      </c>
+      <c r="N465" t="n">
         <v>1.24</v>
       </c>
     </row>
@@ -25340,6 +26791,9 @@
         <v>-0.07500000000000284</v>
       </c>
       <c r="M466" t="n">
+        <v>-0.08483515000000284</v>
+      </c>
+      <c r="N466" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -25395,6 +26849,9 @@
         <v>0.490000000000002</v>
       </c>
       <c r="M467" t="n">
+        <v>0.480238300000002</v>
+      </c>
+      <c r="N467" t="n">
         <v>1.3</v>
       </c>
     </row>
@@ -25450,6 +26907,9 @@
         <v>6.400000000000091</v>
       </c>
       <c r="M468" t="n">
+        <v>6.22892000000009</v>
+      </c>
+      <c r="N468" t="n">
         <v>0.97</v>
       </c>
     </row>
@@ -25505,6 +26965,9 @@
         <v>0.5999999999999091</v>
       </c>
       <c r="M469" t="n">
+        <v>0.4298299999999091</v>
+      </c>
+      <c r="N469" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -25550,10 +27013,19 @@
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
-      <c r="L470" t="inlineStr"/>
-      <c r="M470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>0</v>
+      </c>
+      <c r="K470" t="n">
+        <v>0</v>
+      </c>
+      <c r="L470" t="n">
+        <v>0</v>
+      </c>
+      <c r="M470" t="n">
+        <v>0</v>
+      </c>
+      <c r="N470" t="inlineStr"/>
     </row>
     <row r="471">
       <c r="A471" s="1" t="n">
@@ -25607,6 +27079,9 @@
         <v>-0.02999999999997272</v>
       </c>
       <c r="M471" t="n">
+        <v>-0.1045380999999727</v>
+      </c>
+      <c r="N471" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -25662,6 +27137,9 @@
         <v>0.1499999999999773</v>
       </c>
       <c r="M472" t="n">
+        <v>0.07524609999997731</v>
+      </c>
+      <c r="N472" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -25717,6 +27195,9 @@
         <v>1.050000000000011</v>
       </c>
       <c r="M473" t="n">
+        <v>0.9751291000000109</v>
+      </c>
+      <c r="N473" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -25764,6 +27245,9 @@
         <v>0</v>
       </c>
       <c r="M474" t="n">
+        <v>-0.075348</v>
+      </c>
+      <c r="N474" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25819,6 +27303,9 @@
         <v>0.7700000000000102</v>
       </c>
       <c r="M475" t="n">
+        <v>0.7358945000000102</v>
+      </c>
+      <c r="N475" t="n">
         <v>0.59</v>
       </c>
     </row>
@@ -25874,6 +27361,9 @@
         <v>0.08000000000001251</v>
       </c>
       <c r="M476" t="n">
+        <v>0.04595040000001251</v>
+      </c>
+      <c r="N476" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -25929,6 +27419,9 @@
         <v>0.3899999999999864</v>
       </c>
       <c r="M477" t="n">
+        <v>0.3554368999999864</v>
+      </c>
+      <c r="N477" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -25984,6 +27477,9 @@
         <v>0.289999999999992</v>
       </c>
       <c r="M478" t="n">
+        <v>0.255231499999992</v>
+      </c>
+      <c r="N478" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -26031,6 +27527,9 @@
         <v>0</v>
       </c>
       <c r="M479" t="n">
+        <v>-0.0347308</v>
+      </c>
+      <c r="N479" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26086,6 +27585,9 @@
         <v>2.5</v>
       </c>
       <c r="M480" t="n">
+        <v>0.7523450000000002</v>
+      </c>
+      <c r="N480" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -26141,6 +27643,9 @@
         <v>3.5</v>
       </c>
       <c r="M481" t="n">
+        <v>1.752475</v>
+      </c>
+      <c r="N481" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -26196,6 +27701,9 @@
         <v>2</v>
       </c>
       <c r="M482" t="n">
+        <v>0.24695</v>
+      </c>
+      <c r="N482" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -26251,6 +27759,9 @@
         <v>-19.5</v>
       </c>
       <c r="M483" t="n">
+        <v>-21.268845</v>
+      </c>
+      <c r="N483" t="n">
         <v>-0.29</v>
       </c>
     </row>
@@ -26306,6 +27817,9 @@
         <v>4.5</v>
       </c>
       <c r="M484" t="n">
+        <v>2.734925</v>
+      </c>
+      <c r="N484" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -26353,6 +27867,9 @@
         <v>0</v>
       </c>
       <c r="M485" t="n">
+        <v>-1.76566</v>
+      </c>
+      <c r="N485" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26408,6 +27925,9 @@
         <v>1.75</v>
       </c>
       <c r="M486" t="n">
+        <v>1.6195515</v>
+      </c>
+      <c r="N486" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -26463,6 +27983,9 @@
         <v>0.7999999999999545</v>
       </c>
       <c r="M487" t="n">
+        <v>0.6670099999999545</v>
+      </c>
+      <c r="N487" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -26518,6 +28041,9 @@
         <v>0.5</v>
       </c>
       <c r="M488" t="n">
+        <v>0.366971</v>
+      </c>
+      <c r="N488" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -26573,6 +28099,9 @@
         <v>-0.25</v>
       </c>
       <c r="M489" t="n">
+        <v>-0.3830485</v>
+      </c>
+      <c r="N489" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -26620,6 +28149,9 @@
         <v>0</v>
       </c>
       <c r="M490" t="n">
+        <v>-0.132808</v>
+      </c>
+      <c r="N490" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26675,6 +28207,9 @@
         <v>1.599999999999909</v>
       </c>
       <c r="M491" t="n">
+        <v>1.333759999999909</v>
+      </c>
+      <c r="N491" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -26730,6 +28265,9 @@
         <v>-3</v>
       </c>
       <c r="M492" t="n">
+        <v>-3.266838</v>
+      </c>
+      <c r="N492" t="n">
         <v>-0.29</v>
       </c>
     </row>
@@ -26785,6 +28323,9 @@
         <v>8.599999999999909</v>
       </c>
       <c r="M493" t="n">
+        <v>8.332017999999909</v>
+      </c>
+      <c r="N493" t="n">
         <v>0.83</v>
       </c>
     </row>
@@ -26840,6 +28381,9 @@
         <v>-3.800000000000182</v>
       </c>
       <c r="M494" t="n">
+        <v>-4.068450000000182</v>
+      </c>
+      <c r="N494" t="n">
         <v>-0.37</v>
       </c>
     </row>
@@ -26895,6 +28439,9 @@
         <v>-5.200000000000045</v>
       </c>
       <c r="M495" t="n">
+        <v>-5.470868000000045</v>
+      </c>
+      <c r="N495" t="n">
         <v>-0.5</v>
       </c>
     </row>
@@ -26950,6 +28497,9 @@
         <v>7.600000000000136</v>
       </c>
       <c r="M496" t="n">
+        <v>7.328144000000137</v>
+      </c>
+      <c r="N496" t="n">
         <v>0.72</v>
       </c>
     </row>
@@ -26997,6 +28547,9 @@
         <v>0</v>
       </c>
       <c r="M497" t="n">
+        <v>-0.271804</v>
+      </c>
+      <c r="N497" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27052,6 +28605,9 @@
         <v>-0.1400000000000006</v>
       </c>
       <c r="M498" t="n">
+        <v>-0.1725182000000006</v>
+      </c>
+      <c r="N498" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -27107,6 +28663,9 @@
         <v>0.01999999999999602</v>
       </c>
       <c r="M499" t="n">
+        <v>-0.01249740000000397</v>
+      </c>
+      <c r="N499" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -27162,6 +28721,9 @@
         <v>0.2000000000000028</v>
       </c>
       <c r="M500" t="n">
+        <v>0.1674220000000028</v>
+      </c>
+      <c r="N500" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -27217,6 +28779,9 @@
         <v>0.5999999999999943</v>
       </c>
       <c r="M501" t="n">
+        <v>0.5673699999999944</v>
+      </c>
+      <c r="N501" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -27272,6 +28837,9 @@
         <v>-0.3800000000000097</v>
       </c>
       <c r="M502" t="n">
+        <v>-0.4129810000000097</v>
+      </c>
+      <c r="N502" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -27327,6 +28895,9 @@
         <v>0.2399999999999949</v>
       </c>
       <c r="M503" t="n">
+        <v>0.2069383999999949</v>
+      </c>
+      <c r="N503" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -27382,6 +28953,9 @@
         <v>0.2599999999999909</v>
       </c>
       <c r="M504" t="n">
+        <v>0.2175653999999909</v>
+      </c>
+      <c r="N504" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -27437,6 +29011,9 @@
         <v>0.5799999999999841</v>
       </c>
       <c r="M505" t="n">
+        <v>0.5375237999999841</v>
+      </c>
+      <c r="N505" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -27492,6 +29069,9 @@
         <v>0.5</v>
       </c>
       <c r="M506" t="n">
+        <v>0.4573574</v>
+      </c>
+      <c r="N506" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -27547,6 +29127,9 @@
         <v>0.3000000000000114</v>
       </c>
       <c r="M507" t="n">
+        <v>0.2571910000000114</v>
+      </c>
+      <c r="N507" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -27602,6 +29185,9 @@
         <v>-0.06999999999999318</v>
       </c>
       <c r="M508" t="n">
+        <v>-0.08338999999999318</v>
+      </c>
+      <c r="N508" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -27657,6 +29243,9 @@
         <v>0.08500000000000085</v>
       </c>
       <c r="M509" t="n">
+        <v>0.07163015000000085</v>
+      </c>
+      <c r="N509" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -27712,6 +29301,9 @@
         <v>0.1200000000000045</v>
       </c>
       <c r="M510" t="n">
+        <v>0.1066711000000045</v>
+      </c>
+      <c r="N510" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -27759,6 +29351,9 @@
         <v>0</v>
       </c>
       <c r="M511" t="n">
+        <v>-0.0133757</v>
+      </c>
+      <c r="N511" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27814,6 +29409,9 @@
         <v>4.800000000000182</v>
       </c>
       <c r="M512" t="n">
+        <v>4.433400000000182</v>
+      </c>
+      <c r="N512" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -27869,6 +29467,9 @@
         <v>12.40000000000009</v>
       </c>
       <c r="M513" t="n">
+        <v>12.03241200000009</v>
+      </c>
+      <c r="N513" t="n">
         <v>0.88</v>
       </c>
     </row>
@@ -27924,6 +29525,9 @@
         <v>0.4000000000000909</v>
       </c>
       <c r="M514" t="n">
+        <v>0.03085200000009095</v>
+      </c>
+      <c r="N514" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -27979,6 +29583,9 @@
         <v>-0.8000000000001819</v>
       </c>
       <c r="M515" t="n">
+        <v>-1.169200000000182</v>
+      </c>
+      <c r="N515" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -28034,6 +29641,9 @@
         <v>2.399999999999864</v>
       </c>
       <c r="M516" t="n">
+        <v>2.030955999999864</v>
+      </c>
+      <c r="N516" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -28081,6 +29691,9 @@
         <v>0</v>
       </c>
       <c r="M517" t="n">
+        <v>-0.369148</v>
+      </c>
+      <c r="N517" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28136,6 +29749,9 @@
         <v>0.3900000000000006</v>
       </c>
       <c r="M518" t="n">
+        <v>0.3744429000000006</v>
+      </c>
+      <c r="N518" t="n">
         <v>0.65</v>
       </c>
     </row>
@@ -28191,6 +29807,9 @@
         <v>0.4099999999999966</v>
       </c>
       <c r="M519" t="n">
+        <v>0.3942166999999966</v>
+      </c>
+      <c r="N519" t="n">
         <v>0.6799999999999999</v>
       </c>
     </row>
@@ -28246,6 +29865,9 @@
         <v>0.1200000000000045</v>
       </c>
       <c r="M520" t="n">
+        <v>0.1041972000000045</v>
+      </c>
+      <c r="N520" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -28301,6 +29923,9 @@
         <v>0.04000000000000625</v>
       </c>
       <c r="M521" t="n">
+        <v>0.02418680000000625</v>
+      </c>
+      <c r="N521" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -28356,6 +29981,9 @@
         <v>-0.07000000000000028</v>
       </c>
       <c r="M522" t="n">
+        <v>-0.08579630000000028</v>
+      </c>
+      <c r="N522" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -28411,6 +30039,9 @@
         <v>0.04999999999999716</v>
       </c>
       <c r="M523" t="n">
+        <v>0.03421929999999716</v>
+      </c>
+      <c r="N523" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -28458,6 +30089,9 @@
         <v>0</v>
       </c>
       <c r="M524" t="n">
+        <v>-0.0157742</v>
+      </c>
+      <c r="N524" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28513,6 +30147,9 @@
         <v>0.2100000000000009</v>
       </c>
       <c r="M525" t="n">
+        <v>0.1954361000000009</v>
+      </c>
+      <c r="N525" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -28568,6 +30205,9 @@
         <v>-1.080000000000005</v>
       </c>
       <c r="M526" t="n">
+        <v>-1.094731600000005</v>
+      </c>
+      <c r="N526" t="n">
         <v>-1.92</v>
       </c>
     </row>
@@ -28623,6 +30263,9 @@
         <v>-0.240000000000002</v>
       </c>
       <c r="M527" t="n">
+        <v>-0.254840800000002</v>
+      </c>
+      <c r="N527" t="n">
         <v>-0.42</v>
       </c>
     </row>
@@ -28670,6 +30313,9 @@
         <v>0</v>
       </c>
       <c r="M528" t="n">
+        <v>-0.0147836</v>
+      </c>
+      <c r="N528" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28725,6 +30371,9 @@
         <v>-0.3000000000000114</v>
       </c>
       <c r="M529" t="n">
+        <v>-0.3367718000000114</v>
+      </c>
+      <c r="N529" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -28780,6 +30429,9 @@
         <v>-0.3799999999999955</v>
       </c>
       <c r="M530" t="n">
+        <v>-0.3936031999999955</v>
+      </c>
+      <c r="N530" t="n">
         <v>-0.73</v>
       </c>
     </row>
@@ -28835,6 +30487,9 @@
         <v>0.05999999999999517</v>
       </c>
       <c r="M531" t="n">
+        <v>0.04634479999999517</v>
+      </c>
+      <c r="N531" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -28890,6 +30545,9 @@
         <v>-0.08999999999999631</v>
       </c>
       <c r="M532" t="n">
+        <v>-0.1040386999999963</v>
+      </c>
+      <c r="N532" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -28945,6 +30603,9 @@
         <v>-0.2199999999999704</v>
       </c>
       <c r="M533" t="n">
+        <v>-0.3155083999999704</v>
+      </c>
+      <c r="N533" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -29000,6 +30661,9 @@
         <v>0.06000000000000227</v>
       </c>
       <c r="M534" t="n">
+        <v>-0.03554479999999772</v>
+      </c>
+      <c r="N534" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -29055,6 +30719,9 @@
         <v>0.75</v>
       </c>
       <c r="M535" t="n">
+        <v>0.6544721</v>
+      </c>
+      <c r="N535" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -29110,6 +30777,9 @@
         <v>1.299999999999955</v>
       </c>
       <c r="M536" t="n">
+        <v>1.204416199999955</v>
+      </c>
+      <c r="N536" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -29165,6 +30835,9 @@
         <v>-0.7699999999999818</v>
       </c>
       <c r="M537" t="n">
+        <v>-0.8674024999999819</v>
+      </c>
+      <c r="N537" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -29212,6 +30885,9 @@
         <v>0</v>
       </c>
       <c r="M538" t="n">
+        <v>-0.09730499999999999</v>
+      </c>
+      <c r="N538" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29267,6 +30943,9 @@
         <v>5.999999999999062e-05</v>
       </c>
       <c r="M539" t="n">
+        <v>3.507379999999062e-05</v>
+      </c>
+      <c r="N539" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -29322,6 +31001,9 @@
         <v>0.0002999999999999947</v>
       </c>
       <c r="M540" t="n">
+        <v>0.0002750321999999947</v>
+      </c>
+      <c r="N540" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -29377,6 +31059,9 @@
         <v>-0.0001000000000000029</v>
       </c>
       <c r="M541" t="n">
+        <v>-0.0001250354000000029</v>
+      </c>
+      <c r="N541" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -29432,6 +31117,9 @@
         <v>-0.0005799999999999972</v>
       </c>
       <c r="M542" t="n">
+        <v>-0.0006050977999999971</v>
+      </c>
+      <c r="N542" t="n">
         <v>-0.6</v>
       </c>
     </row>
@@ -29487,6 +31175,9 @@
         <v>-3.999999999999837e-05</v>
       </c>
       <c r="M543" t="n">
+        <v>-6.518359999999836e-05</v>
+      </c>
+      <c r="N543" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -29542,6 +31233,9 @@
         <v>-0.5500000000001819</v>
       </c>
       <c r="M544" t="n">
+        <v>-1.326366500000182</v>
+      </c>
+      <c r="N544" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -29597,6 +31291,9 @@
         <v>-9.550000000000182</v>
       </c>
       <c r="M545" t="n">
+        <v>-10.32753650000018</v>
+      </c>
+      <c r="N545" t="n">
         <v>-0.32</v>
       </c>
     </row>
@@ -29652,6 +31349,9 @@
         <v>4.350000000000364</v>
       </c>
       <c r="M546" t="n">
+        <v>3.569772500000364</v>
+      </c>
+      <c r="N546" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -29707,6 +31407,9 @@
         <v>7.300000000000182</v>
       </c>
       <c r="M547" t="n">
+        <v>6.518934000000182</v>
+      </c>
+      <c r="N547" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -29762,6 +31465,9 @@
         <v>2.599999999999909</v>
       </c>
       <c r="M548" t="n">
+        <v>1.816086999999909</v>
+      </c>
+      <c r="N548" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -29817,6 +31523,9 @@
         <v>-0.09999999999990905</v>
       </c>
       <c r="M549" t="n">
+        <v>-0.8848229999999089</v>
+      </c>
+      <c r="N549" t="n">
         <v>-0</v>
       </c>
     </row>
@@ -29872,6 +31581,9 @@
         <v>0.09999999999990905</v>
       </c>
       <c r="M550" t="n">
+        <v>-0.6841340000000908</v>
+      </c>
+      <c r="N550" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29927,6 +31639,9 @@
         <v>3.949999999999818</v>
       </c>
       <c r="M551" t="n">
+        <v>3.166366499999818</v>
+      </c>
+      <c r="N551" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -29982,6 +31697,9 @@
         <v>-2.650000000000091</v>
       </c>
       <c r="M552" t="n">
+        <v>-3.433724500000091</v>
+      </c>
+      <c r="N552" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -30029,6 +31747,9 @@
         <v>0</v>
       </c>
       <c r="M553" t="n">
+        <v>-0.7834709999999999</v>
+      </c>
+      <c r="N553" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30084,6 +31805,9 @@
         <v>-0.1049999999999969</v>
       </c>
       <c r="M554" t="n">
+        <v>-0.1139667499999969</v>
+      </c>
+      <c r="N554" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -30139,6 +31863,9 @@
         <v>0.02000000000000313</v>
       </c>
       <c r="M555" t="n">
+        <v>0.01104950000000313</v>
+      </c>
+      <c r="N555" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -30194,6 +31921,9 @@
         <v>-0.2650000000000006</v>
       </c>
       <c r="M556" t="n">
+        <v>-0.2739914500000006</v>
+      </c>
+      <c r="N556" t="n">
         <v>-0.77</v>
       </c>
     </row>
@@ -30249,6 +31979,9 @@
         <v>2.100000000000023</v>
       </c>
       <c r="M557" t="n">
+        <v>1.932053000000023</v>
+      </c>
+      <c r="N557" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -30304,6 +32037,9 @@
         <v>-1.700000000000045</v>
       </c>
       <c r="M558" t="n">
+        <v>-1.868441000000045</v>
+      </c>
+      <c r="N558" t="n">
         <v>-0.26</v>
       </c>
     </row>
@@ -30359,6 +32095,9 @@
         <v>1.100000000000023</v>
       </c>
       <c r="M559" t="n">
+        <v>0.9312470000000229</v>
+      </c>
+      <c r="N559" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -30414,6 +32153,9 @@
         <v>0.1000000000000227</v>
       </c>
       <c r="M560" t="n">
+        <v>-0.06870099999997728</v>
+      </c>
+      <c r="N560" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -30469,6 +32211,9 @@
         <v>-8.5</v>
       </c>
       <c r="M561" t="n">
+        <v>-8.667583</v>
+      </c>
+      <c r="N561" t="n">
         <v>-1.31</v>
       </c>
     </row>
@@ -30524,6 +32269,9 @@
         <v>0.8000000000000682</v>
       </c>
       <c r="M562" t="n">
+        <v>0.6336520000000682</v>
+      </c>
+      <c r="N562" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -30571,6 +32319,9 @@
         <v>0</v>
       </c>
       <c r="M563" t="n">
+        <v>-0.166244</v>
+      </c>
+      <c r="N563" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30616,10 +32367,19 @@
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
-      <c r="L564" t="inlineStr"/>
-      <c r="M564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>0</v>
+      </c>
+      <c r="K564" t="n">
+        <v>0</v>
+      </c>
+      <c r="L564" t="n">
+        <v>0</v>
+      </c>
+      <c r="M564" t="n">
+        <v>0</v>
+      </c>
+      <c r="N564" t="inlineStr"/>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
@@ -30673,6 +32433,9 @@
         <v>-0.01000000000001933</v>
       </c>
       <c r="M565" t="n">
+        <v>-0.04449550000001933</v>
+      </c>
+      <c r="N565" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -30728,6 +32491,9 @@
         <v>15.5</v>
       </c>
       <c r="M566" t="n">
+        <v>13.731415</v>
+      </c>
+      <c r="N566" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -30783,6 +32549,9 @@
         <v>-2.5</v>
       </c>
       <c r="M567" t="n">
+        <v>-4.270405</v>
+      </c>
+      <c r="N567" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -30838,6 +32607,9 @@
         <v>-1.249999999999943</v>
       </c>
       <c r="M568" t="n">
+        <v>-1.382970499999943</v>
+      </c>
+      <c r="N568" t="n">
         <v>-0.24</v>
       </c>
     </row>
@@ -30893,6 +32665,9 @@
         <v>1</v>
       </c>
       <c r="M569" t="n">
+        <v>0.727858</v>
+      </c>
+      <c r="N569" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -30940,6 +32715,9 @@
         <v>0</v>
       </c>
       <c r="M570" t="n">
+        <v>-0.272272</v>
+      </c>
+      <c r="N570" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30995,6 +32773,9 @@
         <v>0.1800000000000068</v>
       </c>
       <c r="M571" t="n">
+        <v>0.1468578000000068</v>
+      </c>
+      <c r="N571" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -31050,6 +32831,9 @@
         <v>0.07999999999999829</v>
       </c>
       <c r="M572" t="n">
+        <v>0.0468447999999983</v>
+      </c>
+      <c r="N572" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -31097,6 +32881,9 @@
         <v>0</v>
       </c>
       <c r="M573" t="n">
+        <v>-0.0331292</v>
+      </c>
+      <c r="N573" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31152,6 +32939,9 @@
         <v>0.7199999999999989</v>
       </c>
       <c r="M574" t="n">
+        <v>0.6767931999999989</v>
+      </c>
+      <c r="N574" t="n">
         <v>0.43</v>
       </c>
     </row>
@@ -31199,6 +32989,9 @@
         <v>0</v>
       </c>
       <c r="M575" t="n">
+        <v>-0.0432536</v>
+      </c>
+      <c r="N575" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31254,6 +33047,9 @@
         <v>0.02999999999999403</v>
       </c>
       <c r="M576" t="n">
+        <v>0.01424269999999403</v>
+      </c>
+      <c r="N576" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -31301,6 +33097,9 @@
         <v>0</v>
       </c>
       <c r="M577" t="n">
+        <v>-0.0367536</v>
+      </c>
+      <c r="N577" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31356,6 +33155,9 @@
         <v>0.1300000000000026</v>
       </c>
       <c r="M578" t="n">
+        <v>0.1159873000000026</v>
+      </c>
+      <c r="N578" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -31411,6 +33213,9 @@
         <v>0.05000000000000426</v>
       </c>
       <c r="M579" t="n">
+        <v>0.03599770000000426</v>
+      </c>
+      <c r="N579" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -31466,6 +33271,9 @@
         <v>1.180000000000007</v>
       </c>
       <c r="M580" t="n">
+        <v>1.082606600000007</v>
+      </c>
+      <c r="N580" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -31513,6 +33321,9 @@
         <v>0</v>
       </c>
       <c r="M581" t="n">
+        <v>-0.0967174</v>
+      </c>
+      <c r="N581" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31560,6 +33371,9 @@
         <v>0</v>
       </c>
       <c r="M582" t="n">
+        <v>-0.7853559999999999</v>
+      </c>
+      <c r="N582" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31615,6 +33429,9 @@
         <v>0.1000000000000227</v>
       </c>
       <c r="M583" t="n">
+        <v>-0.06649099999997729</v>
+      </c>
+      <c r="N583" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -31660,10 +33477,19 @@
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
-      <c r="L584" t="inlineStr"/>
-      <c r="M584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>0</v>
+      </c>
+      <c r="K584" t="n">
+        <v>0</v>
+      </c>
+      <c r="L584" t="n">
+        <v>0</v>
+      </c>
+      <c r="M584" t="n">
+        <v>0</v>
+      </c>
+      <c r="N584" t="inlineStr"/>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
@@ -31709,6 +33535,9 @@
         <v>0</v>
       </c>
       <c r="M585" t="n">
+        <v>-0.07512179999999999</v>
+      </c>
+      <c r="N585" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31764,6 +33593,9 @@
         <v>0.5099999999999909</v>
       </c>
       <c r="M586" t="n">
+        <v>0.4753458999999909</v>
+      </c>
+      <c r="N586" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -31819,6 +33651,9 @@
         <v>26</v>
       </c>
       <c r="M587" t="n">
+        <v>24.23512</v>
+      </c>
+      <c r="N587" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -31866,6 +33701,9 @@
         <v>0</v>
       </c>
       <c r="M588" t="n">
+        <v>-1.76241</v>
+      </c>
+      <c r="N588" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31921,6 +33759,9 @@
         <v>1.25</v>
       </c>
       <c r="M589" t="n">
+        <v>1.1165485</v>
+      </c>
+      <c r="N589" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -31968,6 +33809,9 @@
         <v>0</v>
       </c>
       <c r="M590" t="n">
+        <v>-0.133653</v>
+      </c>
+      <c r="N590" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32023,6 +33867,9 @@
         <v>2.800000000000182</v>
       </c>
       <c r="M591" t="n">
+        <v>2.529600000000182</v>
+      </c>
+      <c r="N591" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -32078,6 +33925,9 @@
         <v>-0.009000000000000341</v>
       </c>
       <c r="M592" t="n">
+        <v>-0.01210817000000034</v>
+      </c>
+      <c r="N592" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -32125,6 +33975,9 @@
         <v>0</v>
       </c>
       <c r="M593" t="n">
+        <v>-0.03376879999999999</v>
+      </c>
+      <c r="N593" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32172,6 +34025,9 @@
         <v>0</v>
       </c>
       <c r="M594" t="n">
+        <v>-0.04285319999999999</v>
+      </c>
+      <c r="N594" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32227,6 +34083,9 @@
         <v>6</v>
       </c>
       <c r="M595" t="n">
+        <v>5.631060000000001</v>
+      </c>
+      <c r="N595" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -32282,6 +34141,9 @@
         <v>2.599999999999909</v>
       </c>
       <c r="M596" t="n">
+        <v>2.231917999999909</v>
+      </c>
+      <c r="N596" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -32337,6 +34199,9 @@
         <v>0.06000000000000227</v>
       </c>
       <c r="M597" t="n">
+        <v>0.04417900000000227</v>
+      </c>
+      <c r="N597" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -32392,6 +34257,9 @@
         <v>0.3600000000000136</v>
       </c>
       <c r="M598" t="n">
+        <v>0.2628588000000136</v>
+      </c>
+      <c r="N598" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -32439,6 +34307,9 @@
         <v>0</v>
       </c>
       <c r="M599" t="n">
+        <v>-0.097188</v>
+      </c>
+      <c r="N599" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32494,6 +34365,9 @@
         <v>-0.001059999999999992</v>
       </c>
       <c r="M600" t="n">
+        <v>-0.001085778999999992</v>
+      </c>
+      <c r="N600" t="n">
         <v>-1.07</v>
       </c>
     </row>
@@ -32541,6 +34415,9 @@
         <v>0</v>
       </c>
       <c r="M601" t="n">
+        <v>-2.59168e-05</v>
+      </c>
+      <c r="N601" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32596,6 +34473,9 @@
         <v>-0.02000000000000313</v>
       </c>
       <c r="M602" t="n">
+        <v>-0.02900770000000313</v>
+      </c>
+      <c r="N602" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -32610,7 +34490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32626,25 +34506,30 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>rq_sum</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>sum</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>count</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>part</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>total_percent</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>average_percent</t>
         </is>
@@ -32657,18 +34542,21 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>1.331834400000024</v>
+      </c>
+      <c r="C2" t="n">
         <v>4.160000000000024</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>38</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>0.1094736842105269</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>1.37</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -32679,18 +34567,21 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>19.23607200000027</v>
+      </c>
+      <c r="C3" t="n">
         <v>29.20000000000027</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>37</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.7891891891891964</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>2.7</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>
@@ -32701,18 +34592,21 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>1.667893599999979</v>
+      </c>
+      <c r="C4" t="n">
         <v>2.179999999999978</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>35</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>0.06228571428571367</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>3.91</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -32723,18 +34617,21 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>-0.09436699999998828</v>
+      </c>
+      <c r="C5" t="n">
         <v>1.300000000000011</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>33</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>0.03939393939393974</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.75</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -32745,18 +34642,21 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>2.248638999999995</v>
+      </c>
+      <c r="C6" t="n">
         <v>2.739999999999995</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>31</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>0.08838709677419339</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>4.44</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -32767,18 +34667,21 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>-0.001262230799999994</v>
+      </c>
+      <c r="C7" t="n">
         <v>-0.0004799999999999948</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>31</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>-1.548387096774177e-05</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>-0.6099999999999997</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -32789,18 +34692,21 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>11.05135349999992</v>
+      </c>
+      <c r="C8" t="n">
         <v>15.14999999999992</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>31</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>0.4887096774193523</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>3.03</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -32811,63 +34717,72 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>132.511635</v>
+      </c>
+      <c r="C9" t="n">
         <v>184.5</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>30</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>6.15</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>2.75</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>0.09</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>134.1999999999998</v>
+        <v>1.583623699999936</v>
       </c>
       <c r="C10" t="n">
+        <v>2.569999999999936</v>
+      </c>
+      <c r="D10" t="n">
         <v>29</v>
       </c>
-      <c r="D10" t="n">
-        <v>4.627586206896545</v>
-      </c>
       <c r="E10" t="n">
-        <v>4.36</v>
+        <v>0.08862068965517021</v>
       </c>
       <c r="F10" t="n">
-        <v>0.15</v>
+        <v>1.98</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.569999999999936</v>
+        <v>111.4836309999998</v>
       </c>
       <c r="C11" t="n">
+        <v>134.1999999999998</v>
+      </c>
+      <c r="D11" t="n">
         <v>29</v>
       </c>
-      <c r="D11" t="n">
-        <v>0.08862068965517021</v>
-      </c>
       <c r="E11" t="n">
-        <v>1.98</v>
+        <v>4.627586206896545</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07000000000000001</v>
+        <v>4.36</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="12">
@@ -32877,18 +34792,21 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>-4.478361999999907</v>
+      </c>
+      <c r="C12" t="n">
         <v>5.400000000000089</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>27</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>0.2000000000000033</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.3999999999999997</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -32899,18 +34817,21 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>3.35472599999998</v>
+      </c>
+      <c r="C13" t="n">
         <v>4.23999999999998</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>27</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>0.1570370370370363</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>3.34</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -32921,18 +34842,21 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>2.314788199999933</v>
+      </c>
+      <c r="C14" t="n">
         <v>3.259999999999933</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>25</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>0.1303999999999973</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>2.07</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -32943,18 +34867,21 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>6.406398199999965</v>
+      </c>
+      <c r="C15" t="n">
         <v>7.819999999999965</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>24</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>0.3258333333333319</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>3.44</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -32965,18 +34892,21 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>1.248588500000026</v>
+      </c>
+      <c r="C16" t="n">
         <v>1.550000000000026</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>23</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>0.06739130434782721</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>3.18</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -32987,18 +34917,21 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>-0.5146689800000108</v>
+      </c>
+      <c r="C17" t="n">
         <v>-0.4100000000000107</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>20</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>-0.02050000000000054</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>-2.06</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -33009,18 +34942,21 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>-14.0649935</v>
+      </c>
+      <c r="C18" t="n">
         <v>-10.75</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>19</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>-0.5657894736842105</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>-1.62</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -33031,18 +34967,21 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>-1.230992299999994</v>
+      </c>
+      <c r="C19" t="n">
         <v>-0.8499999999999941</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>15</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>-0.05666666666666628</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>-0.9100000000000003</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -33053,18 +34992,21 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>-0.2563956999999991</v>
+      </c>
+      <c r="C20" t="n">
         <v>-0.2099999999999991</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>15</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>-0.01399999999999994</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>-1.78</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -33075,18 +35017,21 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>2.399880000000137</v>
+      </c>
+      <c r="C21" t="n">
         <v>4.600000000000138</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>13</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>0.3538461538461645</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.7000000000000001</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -33097,18 +35042,21 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>8.135628699999931</v>
+      </c>
+      <c r="C22" t="n">
         <v>9.389999999999931</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>13</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>0.722307692307687</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>2.620000000000001</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -33119,148 +35067,173 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>-3.546951499999944</v>
+      </c>
+      <c r="C23" t="n">
         <v>-3.029999999999944</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>13</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>-0.2330769230769188</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>-1.98</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>-0.15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>RUAL</t>
+          <t>moex</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8550000000000181</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
         <v>12</v>
       </c>
-      <c r="D24" t="n">
-        <v>0.07125000000000151</v>
-      </c>
       <c r="E24" t="n">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ABIO</t>
+          <t>RUAL</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.1399999999999935</v>
+        <v>0.7445305500000181</v>
       </c>
       <c r="C25" t="n">
-        <v>8</v>
+        <v>0.8550000000000181</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.01749999999999918</v>
+        <v>12</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.3099999999999999</v>
+        <v>0.07125000000000151</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.04</v>
+        <v>2.34</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>SBERP</t>
+          <t>ABIO</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.839999999999975</v>
+        <v>-0.2625847999999935</v>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>-0.1399999999999935</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.167999999999995</v>
+        <v>8</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.3</v>
+        <v>-0.01749999999999918</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.06</v>
+        <v>-0.3099999999999999</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>HYDR</t>
+          <t>SBERP</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.004800000000000027</v>
+        <v>-1.202270999999975</v>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>-0.839999999999975</v>
       </c>
       <c r="D27" t="n">
-        <v>0.001200000000000007</v>
+        <v>5</v>
       </c>
       <c r="E27" t="n">
-        <v>0.8099999999999999</v>
+        <v>-0.167999999999995</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2</v>
+        <v>-0.3</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>MRKP</t>
+          <t>HYDR</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.001199999999999979</v>
+        <v>0.004173660000000027</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>0.004800000000000027</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.0005999999999999895</v>
+        <v>4</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.41</v>
+        <v>0.001200000000000007</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.2</v>
+        <v>0.8099999999999999</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>moex</t>
+          <t>MRKP</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>-0.001353581999999979</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="inlineStr"/>
+        <v>-0.001199999999999979</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2</v>
+      </c>
       <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="inlineStr"/>
+        <v>-0.0005999999999999895</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/total_res/ST3a_output.xlsx
+++ b/total_res/ST3a_output.xlsx
@@ -34490,7 +34490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34534,6 +34534,11 @@
           <t>average_percent</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>files</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -34559,6 +34564,9 @@
       <c r="G2" t="n">
         <v>0.04</v>
       </c>
+      <c r="H2" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -34584,6 +34592,9 @@
       <c r="G3" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="H3" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -34609,6 +34620,9 @@
       <c r="G4" t="n">
         <v>0.11</v>
       </c>
+      <c r="H4" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -34634,6 +34648,9 @@
       <c r="G5" t="n">
         <v>0.02</v>
       </c>
+      <c r="H5" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -34659,6 +34676,9 @@
       <c r="G6" t="n">
         <v>0.14</v>
       </c>
+      <c r="H6" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -34684,6 +34704,9 @@
       <c r="G7" t="n">
         <v>-0.02</v>
       </c>
+      <c r="H7" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -34709,6 +34732,9 @@
       <c r="G8" t="n">
         <v>0.1</v>
       </c>
+      <c r="H8" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -34734,6 +34760,9 @@
       <c r="G9" t="n">
         <v>0.09</v>
       </c>
+      <c r="H9" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -34759,6 +34788,9 @@
       <c r="G10" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="H10" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -34784,6 +34816,9 @@
       <c r="G11" t="n">
         <v>0.15</v>
       </c>
+      <c r="H11" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -34809,6 +34844,9 @@
       <c r="G12" t="n">
         <v>0.01</v>
       </c>
+      <c r="H12" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -34834,6 +34872,9 @@
       <c r="G13" t="n">
         <v>0.12</v>
       </c>
+      <c r="H13" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -34859,6 +34900,9 @@
       <c r="G14" t="n">
         <v>0.08</v>
       </c>
+      <c r="H14" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -34884,6 +34928,9 @@
       <c r="G15" t="n">
         <v>0.14</v>
       </c>
+      <c r="H15" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -34909,6 +34956,9 @@
       <c r="G16" t="n">
         <v>0.14</v>
       </c>
+      <c r="H16" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -34934,6 +34984,9 @@
       <c r="G17" t="n">
         <v>-0.1</v>
       </c>
+      <c r="H17" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -34959,6 +35012,9 @@
       <c r="G18" t="n">
         <v>-0.09</v>
       </c>
+      <c r="H18" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -34984,6 +35040,9 @@
       <c r="G19" t="n">
         <v>-0.06</v>
       </c>
+      <c r="H19" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -35009,6 +35068,9 @@
       <c r="G20" t="n">
         <v>-0.12</v>
       </c>
+      <c r="H20" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -35034,6 +35096,9 @@
       <c r="G21" t="n">
         <v>0.05</v>
       </c>
+      <c r="H21" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -35059,6 +35124,9 @@
       <c r="G22" t="n">
         <v>0.2</v>
       </c>
+      <c r="H22" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -35084,6 +35152,9 @@
       <c r="G23" t="n">
         <v>-0.15</v>
       </c>
+      <c r="H23" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -35109,6 +35180,9 @@
       <c r="G24" t="n">
         <v>0</v>
       </c>
+      <c r="H24" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -35134,6 +35208,9 @@
       <c r="G25" t="n">
         <v>0.2</v>
       </c>
+      <c r="H25" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -35159,6 +35236,9 @@
       <c r="G26" t="n">
         <v>-0.04</v>
       </c>
+      <c r="H26" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -35184,6 +35264,9 @@
       <c r="G27" t="n">
         <v>-0.06</v>
       </c>
+      <c r="H27" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -35209,6 +35292,9 @@
       <c r="G28" t="n">
         <v>0.2</v>
       </c>
+      <c r="H28" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -35233,6 +35319,9 @@
       </c>
       <c r="G29" t="n">
         <v>-0.2</v>
+      </c>
+      <c r="H29" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
